--- a/fragen_abwl.xlsx
+++ b/fragen_abwl.xlsx
@@ -1,42 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20393"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marvi\Desktop\abwl_recht\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leonk\git\THM_ABWL_RECHT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFCA4520-2880-4E9B-9187-1BE8EBBB2874}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EFBED50-5B4C-4603-AA59-1391221B4FB9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5625" yWindow="540" windowWidth="16875" windowHeight="10635" xr2:uid="{A466E4F3-40EA-4A10-A7EA-5A12C2557BBF}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
+    <sheet name="Tabelle1 (2)" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="152">
   <si>
     <t>Was ist der Realgüterbereich?</t>
   </si>
@@ -528,6 +518,277 @@
   </si>
   <si>
     <t>Antwort</t>
+  </si>
+  <si>
+    <t>· Summe der mit Kaufkraft ausgestatteten Bedürfnisse.
+· Bedürfnisse: Mangelgefühl oder unerfüllter Wunsch
+· Beispiel: Studentin hat Hunger (Bedürfnis) und genug Geld (Kaufkrauft) um sich eine Mahlzeit in der Kantine zu kaufen</t>
+  </si>
+  <si>
+    <t>· Bund, Länder, Kommunen. Sie leiten die Bedürfnisse aus denen
+der Haushalte ab → Kollekivbedürfnisse
+· Der öffentliche Haushalt dient primär dazu, den Bürgern
+öffentliche Leistungen (z.B. Sicherheit, Bildung) zur Verfügung zu
+stellen.</t>
+  </si>
+  <si>
+    <t>· Betrieb als planvoll organisierte Wirtschaftseinheit
+· Aufgaben des Betrieb: Ressourcen (Menschen, Materialien, Maschinen, etc.) kombinieren, Güter/Dienstleitungen herstellen, Fremdbadarf decken, Absatz schaffen</t>
+  </si>
+  <si>
+    <t>· BWL: Prozessen innerhalb eines einzelnen Unternehmens, VWL: gesamtwirtschaftliche Zusammenhänge (Erkentnissobjekt)
+· Stichwort: Frosch- (BWL) vs. Vogelperspektive (VWL)
+· BWL unterteilt sich in: Allgemeine BWL (Standort, Rechtsform, Verbindungen) und Spezielle BWL (einzelne Institutionen der BWL)
+· Beide Formen beschreiben die Funktionale BWL (Grundlegende Funktionen der BWL: Marketing, etc.)
+· Erfahrungsobjekt: BWL: Betrieb, VWL: Aggregierte Bereiche (z.B. alle Betriebe)</t>
+  </si>
+  <si>
+    <t>Warum ist BWL entstanden?</t>
+  </si>
+  <si>
+    <t>Was macht die allgemeine BWL?</t>
+  </si>
+  <si>
+    <t>Was ist ein Homo Ökonomicus?</t>
+  </si>
+  <si>
+    <t>Was bestimmt ökonomistisches Handeln?</t>
+  </si>
+  <si>
+    <t>Welche betriebs-wirtschaftlichen Basiskonzepte lassen sich unterscheiden?</t>
+  </si>
+  <si>
+    <t>Nenne 5 Betriebstypologien und jeweils einer Ausprägung.</t>
+  </si>
+  <si>
+    <t>Was macht der verhaltens-/sozial-wirtschaftliche Ansatz?</t>
+  </si>
+  <si>
+    <t>Was bewirken soziale Faktoren im Arbeitsumfeld?</t>
+  </si>
+  <si>
+    <t>Wodurch erkennt man Dienstleistungen?</t>
+  </si>
+  <si>
+    <t>Wovon hängt es ab, ob der Einkauf eines Produkts ein Konsum- oder ein Produktionsgut darstellt?</t>
+  </si>
+  <si>
+    <t>Entstanden aus dem Bedarf, wirtschaftliche Aktivitäten von Unternehmen zu analysieren und zu optimieren.
+· Industrialisierung: Zunahme und Wachstum von Unternehmen und Veränderung der Betriebsstrukturen.
+-&gt; Bedarf nach wissenschaftlicher Analyse und Optimierung von Unternehmensprozessen
+· Globalisierung: Globalisierung und Wettbewerb haben dazu beigetragen, dass Unternehmen mehr auf Effizienz und Wettbewerbsfähigkeit setzen
+-&gt; BWL liefert dafür wichtige Analyse- und Planungsinstrumente.</t>
+  </si>
+  <si>
+    <t>· Grundlegende Konzepte und Theorien für das Verständnis von Unternehmen
+· Befasst sich mit Struktur, Management, Entscheidungsprozessen eines Unternehmens
+· Systematische und wissenschaftliche Analyse von Unternehmen und ihrem Verhalten
+· Verwendet Analysemethoden und -modelle um Entscheidungen und Aktivitäten von Unternehmen zu beschreiben
+· Bietet somit einen Leitfaden für konstitutive Entscheidungen wie Standort, Rechtsform oder Verbindungen
+· Gibt einen Überblick über die Funktionale BWL (z.B. Marketing, Personalmanagement, Rechnungswesen, etc.)</t>
+  </si>
+  <si>
+    <t>Ist ein hypothetischer Typus des menschlichen Verhaltens in der Wirtschaftslehre der nur ökonomische Ziele kennt
+Eigenschaften:
+· rationales Verhalten
+· Nutzenmaximierung (Streben nach größtmöglichem Nutzen)
+· vollständige Markttransparenz (vollständige Kenntnis seiner wirtschaftlichen Entscheidungsmöglichkeiten, deren Folgen sowie die vollkommene Information über alle Märkte und Eigenschaften sämtlicher Güter)
+-&gt; Dient dazu, elementare wirtschaftliche Zusammenhänge in der Theorie durchsichtig und ohne praktische Unzulänglichkeiten beschreiben zu können.</t>
+  </si>
+  <si>
+    <t>Ökonomistisches Handeln: Entscheidungen und Aktivitäten, die sich auf die Beschaffung von knappen Ressourcen beziehen.
+Gewinn- / Nutzenmaximierung stehen im Vordergrund
+Wird bestimmt durch:
+· Verfügbarkeit von Ressourcen: Handeln wird durch die Menge der verfügbaren Ressourcen (z.B. Zeit oder Geld) begrenzt.
+· Nutzenmaximierung: Es wird versucht, den größtmöglichen Nutzen aus den Entscheidungen zu ziehen.
+· Rationalität: Entscheidungen werden auf der Grundlage logischer Überlegungen und nützlicher Informationen getroffen.
+· Präferenzen: individuelle Präferenzen und Vorlieben beeinflussen das Handeln.
+· Marktmechanismen: Beeinflussung durch Regeln, etc. des Marktes (z.B. Preise, Wettbewerb oder Eigentumsrechte).</t>
+  </si>
+  <si>
+    <t>Kriterien zur Abgrenzung: Ökonomisches Basiskonzept | Sozialwissenschaftliches Basiskonzept
+Menschenbild: Economic Man | Social, Complex und Virtual Man
+BWL als: Autonome Wissenschaft | Spezielle Sozialwissenschaft
+Ethik: Verzicht auf Ethik (Praktisch-normative BWL) | Ethik ist wichtig (Ethisch-normative BWL)
+Vorrangig sind: Eigentümer (Shareholder) | Anspruchsgruppen
+(alle Stakeholder)
+Unternehmensziel: Langfristige Gewinnmaximierung | Maximierung des Gemeinwohls (ökonomisch, sozial und ökologisch)</t>
+  </si>
+  <si>
+    <t>Art der erstellten Leistung:
+Sachleistungsunternehmen
+· Gewinnungsbetrieb
+· Aufbereitungsbetrieb
+· Verarbeitungsbetrieb
+Dienstleistungsunternehmen
+· Handelsunternehmen
+Finanzunternehmen
+· Internet-Dienstleister
+Betriebsgröße
+· Klein- und Mittelunternehmen
+· Großunternehmen
+Rechtsform:
+· Einzelunternehmen
+· Personengesellschaft
+· Kapitalgesellschaft
+Gewinnorientierung
+· Profitorientierte Unternehmen
+· Non-Profit-Organisationen
+Lebensphase
+· Start-up-Unternehmen
+· Wachstumsunternehmen
+· Etablierte Unternehmen</t>
+  </si>
+  <si>
+    <t>· Schwerpunkt auf menschliches Verhalten und soziale Faktoren wie Emotionen, Werte und soziale Normen
+· Mensch handelt nicht nur extrinsisch um Geld zu verdienen, sondern auch intrinsisch im Sinne der Gesellschaft.
+· Bietet eine Alternative zu stark auf rationalem Verhalten und ökonomischen Prinzipien fokussierten Ansätzen</t>
+  </si>
+  <si>
+    <t>· Kommunikation und Kooperation: Offenes und respektvolles Arbeitsumfeld kann zur besseren Zusammenarbeit und Effektivität beitragen.
+· Leistung und Motivation: Positive (von Unterstützung und Anerkennung geprägte) Arbeitsatmosphäre kann zu höherer Motivation und Leistung führen.
+Negative (von Konflikten geprägte) Arbeitsatmosphäre verringert diese.
+· Zufriedenheit und Engagement: Von gegenseitigem Respekt und Wertschätzung geprägtes Arbeitsumfeld, kann zu höherer Zufriedenheit und Engagement beitragen
+-&gt; Leistungs- und Effizienzsteigerung durch soziale Faktoren</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Konsumgut:
+· Kunde ist Privatperson (B2C)
+· Werden vom Endverbraucher verwendet
+· z.B. Möbel, Lebensmittel
+Produktionsgut:
+· Kunde ist Geschäftsperson/Unternehmen (B2B)
+· Werden in Unternehmen bzw. im Produktionsprozess verwendet
+· z.B. Maschinen, Schrauben
+Beide sind materielle Güter (Sachgüter)
+Beide können in Verbrauchs- und Gebrauchsgüter unterteilt werden </t>
+  </si>
+  <si>
+    <t>· Sind begrenzt verfügbar und nicht kostenlos
+· Können nicht angefasst oder gelagert werden
+· Werden gleichzeitig mit der Herstellung verbraucht</t>
+  </si>
+  <si>
+    <t>&gt; Freie Güter
+     o Unbegrenzt und kostenlos verfügbar (Luft, Sonnenlicht)
+&gt; Wirtschaftsgüter
+     o Begrenzt verfügbar und nicht kostenlos (Nahrungsmittel, Reisen, Auto)
+&gt; Siehe Frage: Was sind materielle und immaterielle Güter?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&gt; Bis 2 natürliche Personen oder Familienangehörige mindestens 50% Anteile eines Unternehmens
+&gt; Und gehören der Geschäftsführung an </t>
+  </si>
+  <si>
+    <t>Der Realgüterbereich besteht aus der Materialwirtschaft, der Produktion und das Marketing.
+Untergeordnete ist noch die Logistik, die dafür sorgt, dass das Material zur richtigen Zeit am richtigen Ort ist.
+Übergeordnet ist das Innovationsmanagement, welches für die Weiterentwicklung des Produkts verantwortlich ist.</t>
+  </si>
+  <si>
+    <t>Das Marketing ist für die Vermarktung des Produkts zuständig.
+Die Aufgabe sind dabei zum einen der Verkauf des Produkts, aber auch die Werbung und Marktplatzierung des Produkts.</t>
+  </si>
+  <si>
+    <t>Hierarchische Organisationsstruktur
+Funktionale Organisationsstruktur
+Horizontale oder flache Organisationsstruktur
+Abteilungsübergreifende Organisationsstrukturen (marktbasiert, produktbasiert, geografisch)
+Matrix-Organisationsstruktur
+Teambasierte Organisationsstruktur
+Netzwerk-Organisationsstruktur</t>
+  </si>
+  <si>
+    <t>Was ist ein gutes Beispiel für eine Ablauforganisation?</t>
+  </si>
+  <si>
+    <t>Die Ablauforganisation stellt die verschiedenen Prozesse im Unternehmen dar.
+Durch gute Ablauforganisationen sollen Prozesse optimiert werden.</t>
+  </si>
+  <si>
+    <t>Was passiert, wenn ein neuer Ablauf organisiert bzw. entworfen wurde?</t>
+  </si>
+  <si>
+    <t>Der Neue Ablauf muss umgesetzt werden, anschließend muss der Erfolg des neunen Ablaufs gemessen werden.</t>
+  </si>
+  <si>
+    <t>Was kennzeichnet Unterstützungsprozesse?</t>
+  </si>
+  <si>
+    <t>Sie werden vom Kunden kaum bzw. am wenigsten wahrgenommen. Sie sind nicht Teil des eigentlichen Produktionsprozesses.</t>
+  </si>
+  <si>
+    <t>Was ist der Unterschied zwischen internen und externen Stakeholdern.</t>
+  </si>
+  <si>
+    <t>&gt; Externe Stakeholder befinden sich außerhalb eines Unternehmens und haben Interesse an dem Geschehen im Unternehmen Bsp. Kunden, Lieferanten, Staat
+&gt; Interne Stakeholder sind Teil des Unternehmens Bsp. Eigenkapitalgeber, Management, Arbeitnehmer</t>
+  </si>
+  <si>
+    <t>Zusammenhang von Stakeholdern und betriebswirtschaftliche Basiskonzept?</t>
+  </si>
+  <si>
+    <t>Sozialwissenschaftlicher Ansatz versucht es allen Stakeholdern recht zu machen, der ökonomistische Ansatz fokussiert sich vorwiegend auf die Aktionäre</t>
+  </si>
+  <si>
+    <t>Was ist ein Shareholder?</t>
+  </si>
+  <si>
+    <t>Der Shareholder besitzt Anteile des Unternehmens.(Bsp. Aktionäre)</t>
+  </si>
+  <si>
+    <t>In welche Kategorien werden Werkstoffe unterteilt?</t>
+  </si>
+  <si>
+    <t>&gt; Rohstoffe (Hauptbestandteil des Produkt) 
+&gt; Hilfsstoffe (werden verbraucht)
+&gt; Betriebsstoffe (werden verbraucht, gehen aber nicht in Produkt. ein)
+&gt; Fremdbauteile (dazugekauft, sind bereits fertig)</t>
+  </si>
+  <si>
+    <t>Geben Sie Beispiele für alle vier der Werkstoffkategorien!</t>
+  </si>
+  <si>
+    <t>&gt; Rohstoffe : Milch
+&gt; Hilfsstoffe: Gewürze
+&gt; Betriebsstoffe: Energie für Maschinenbetrieb
+&gt; Fremdbauteile: Etiketten.</t>
+  </si>
+  <si>
+    <t>Woraus setzen sich Produktionsfaktoren zusammen?</t>
+  </si>
+  <si>
+    <t>&gt; Elementarfaktoren 
+o Werkstoffe
+o Betriebsstoffe
+o Arbeitsleitung
+&gt; Dispositive Faktoren (übergeordnete Tätigkeiten, wie Planung)</t>
+  </si>
+  <si>
+    <t>Beispiele zu Produktionsfaktoren?</t>
+  </si>
+  <si>
+    <t>Bsp. Gummibären
+&gt; Elementarfaktoren 
+o Werkstoffe: Glukosesirup, Geschmacksstoffe, Strom, Verpackung
+o Betriebsstoffe: Gebäude, Mischmaschinen 
+o Arbeitsleitung : Mittarbeiter 
+&gt; Dispositive Faktoren Planung der Produktion, Kontrolle der Qualität</t>
+  </si>
+  <si>
+    <t>Nennen Sie je eine Funktion aus den Realgüterbereich, dem Finanzbereich und dem Dispobereich.</t>
+  </si>
+  <si>
+    <t>&gt; Realgüterbereich:
+o Produktion
+o Marketing
+o Materialwirtschaft
+&gt; Finanzbereich:
+o Rechnungswesen
+o Finanzierung
+o Investitionen
+&gt; Dispositiver Bereich:
+o Personalmanagement
+o Controlling</t>
   </si>
 </sst>
 </file>
@@ -551,7 +812,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -559,13 +820,28 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -882,10 +1158,454 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F34EFBC5-F813-4A89-BD3A-13F91193891E}">
+  <dimension ref="A1:B53"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A50" workbookViewId="0">
+      <selection activeCell="A57" sqref="A57"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="55.9296875" customWidth="1"/>
+    <col min="2" max="2" width="96.06640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="85.5" x14ac:dyDescent="0.45">
+      <c r="A3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A7" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="71.25" x14ac:dyDescent="0.45">
+      <c r="A8" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="71.25" x14ac:dyDescent="0.45">
+      <c r="A9" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A10" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="99.75" x14ac:dyDescent="0.45">
+      <c r="A11" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="85.5" x14ac:dyDescent="0.45">
+      <c r="A12" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="85.5" x14ac:dyDescent="0.45">
+      <c r="A13" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="114" x14ac:dyDescent="0.45">
+      <c r="A14" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="156.75" x14ac:dyDescent="0.45">
+      <c r="A15" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="114" x14ac:dyDescent="0.45">
+      <c r="A16" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="327.75" x14ac:dyDescent="0.45">
+      <c r="A17" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A18" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="114" x14ac:dyDescent="0.45">
+      <c r="A19" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="142.5" x14ac:dyDescent="0.45">
+      <c r="A20" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A21" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="71.25" x14ac:dyDescent="0.45">
+      <c r="A22" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="299.25" x14ac:dyDescent="0.45">
+      <c r="A23" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="171" x14ac:dyDescent="0.45">
+      <c r="A24" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="71.25" x14ac:dyDescent="0.45">
+      <c r="A25" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A26" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A27" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="199.5" x14ac:dyDescent="0.45">
+      <c r="A28" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="185.25" x14ac:dyDescent="0.45">
+      <c r="A29" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="171" x14ac:dyDescent="0.45">
+      <c r="A30" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="99.75" x14ac:dyDescent="0.45">
+      <c r="A31" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A32" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A33" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A34" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="99.75" x14ac:dyDescent="0.45">
+      <c r="A35" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A36" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A37" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="57" x14ac:dyDescent="0.45">
+      <c r="A38" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A39" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="57" x14ac:dyDescent="0.45">
+      <c r="A40" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A41" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A42" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A43" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A44" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A45" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A46" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A47" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A48" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" ht="57" x14ac:dyDescent="0.45">
+      <c r="A49" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" ht="57" x14ac:dyDescent="0.45">
+      <c r="A50" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" ht="71.25" x14ac:dyDescent="0.45">
+      <c r="A51" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" ht="85.5" x14ac:dyDescent="0.45">
+      <c r="A52" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" ht="156.75" x14ac:dyDescent="0.45">
+      <c r="A53" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>151</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CB0CB76-BD0D-4D43-B8C1-BE17F5856CFF}">
   <dimension ref="A1:B51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>

--- a/fragen_abwl.xlsx
+++ b/fragen_abwl.xlsx
@@ -8,13 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leonk\git\THM_ABWL_RECHT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EFBED50-5B4C-4603-AA59-1391221B4FB9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{912C099C-78B7-4282-B12D-8D193E98CA42}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5625" yWindow="540" windowWidth="16875" windowHeight="10635" xr2:uid="{A466E4F3-40EA-4A10-A7EA-5A12C2557BBF}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
-    <sheet name="Tabelle1 (2)" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -26,19 +25,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="214">
   <si>
     <t>Was ist der Realgüterbereich?</t>
   </si>
   <si>
-    <t>Der Realgüterbereich besteht aus der Materialwirtschaft, der Produktion und das Marketing.
-Untergeordnete ist noch die Logistik, die dafür sorgt, dass das Material zur richtigen Zeit am richtigen Ort ist.</t>
-  </si>
-  <si>
     <t>Was macht das Marketing?</t>
-  </si>
-  <si>
-    <t>Übergeordnet ist das Innovationsmanagement, welches für die Weiterentwicklung des Produkts verantwortlich ist.</t>
   </si>
   <si>
     <t>Was macht die Unternehmensführung?</t>
@@ -102,10 +94,6 @@
   </si>
   <si>
     <t>Wie wird Bedarf definiert?</t>
-  </si>
-  <si>
-    <t>· Summe der mit Kaufkraft ausgestatteten Bedürfnisse.
-· Bedürfnisse: Mangelgefühl oder unerfüllter Wunsch</t>
   </si>
   <si>
     <t>Welche Arten von Bedürfnissen gibt es?</t>
@@ -164,32 +152,10 @@
     <t>Was sind öffentliche Haushalte?</t>
   </si>
   <si>
-    <t>· Bund, Länder, Kommunen. Sie leiten die Bedürfnisse aus denen
-der Haushalte ab → Kollek􀆟vbedürfnisse
-· Der öffentliche Haushalt dient primär dazu, den Bürgern
-öffentliche Leistungen (z.B. Sicherheit, Bildung) zur Verfügung zu
-stellen.</t>
-  </si>
-  <si>
     <t>Was ist das Erfahrungsobjekt der BWL?</t>
   </si>
   <si>
-    <t>· Die Betriebswirtschaft betrachtet den Betrieb unter dem
-ökonomischen Aspekt der Effizienz eines Betriebes um das
-Erkenntnisobjekt „Wirtschaften im Betrieb“ zu definieren</t>
-  </si>
-  <si>
     <t>Unterschied VWL und BWL?</t>
-  </si>
-  <si>
-    <t>· Während sich die Betriebswirtschaftslehre mit Prozessen innerhalb
-eines einzelnen Unternehmens beschäftigt, beleuchtet die
-Volkswirtschaftslehre gesamtwirtschaftliche Zusammenhänge
-· Stichwort: Frosch- (BWL) vs. Vogelperspektive (VWL)
-· BWL unterteilt sich in: Allgemeine BWL (Standort, Rechtsform,
-Verbindungen) und Spezielle BWL (einzelne Institutionen der BWL)
-· Beide Formen beschreiben die Funktionale BWL (Grundlegende
-Funktionen der BWL: Marketing, etc.)</t>
   </si>
   <si>
     <t>Nennen Sie je eine Funktion aus den Realgüterbereich, dem Finanzbereich und dem Dispobereich?</t>
@@ -210,76 +176,16 @@
     <t>Wozu dient Prozessmanagement?</t>
   </si>
   <si>
-    <t>• Bedeutet Gestaltung, Organisation, Durchführung, Messung und Optimierung von Prozessen
-• Konsequente Kundenorientierung
-• Transparenz vom Einzelschritt bis zu einem Gesamtprozess
-• Verständnis und Kenntnis von der eigenen Aktivität abhängigen Prozesse
-• Unterliegt der kontinuierlichen Verbesserung
-• Soll dem Siloeffekt entgegenwirken</t>
-  </si>
-  <si>
     <t>Was sind konstitutive Entscheidungen?</t>
   </si>
   <si>
-    <t>• Werden von der Führungsebene getroffen
-• Sind für das Unternehmen von Grundlegender Bedeutung
-• Sind nur einmal oder sehr selten zu treffen
-• Bspw. Bei Gründung, Expansion oder Aufgabe eines Unternehmens</t>
-  </si>
-  <si>
     <t>Wie sieht der Managementzirkel aus?</t>
   </si>
   <si>
-    <t>Planung -&gt; Entscheidung -&gt; Realisierung -&gt; Kontrolle</t>
-  </si>
-  <si>
-    <t>Wie sind Entscheidungen definiert und wie lassen sie sich in den Management-zirkel einordnen?</t>
-  </si>
-  <si>
-    <t>Eine Entscheidung zu treffen, bedeutet die bewusste Auswahl
-zwischen mehreren Handlungsmöglichkeiten zur Erreichung von
-Zielen.</t>
-  </si>
-  <si>
-    <t>Entscheidungssituation mit Aktionsraum, Zustandsraum und
-Ergebnismatrix darstellen?</t>
-  </si>
-  <si>
-    <t>Maximax                    Keine
-                           Kontrolle   Kontrolle   Beurteilungsgröße
---------------------------------------------------------------------
-Kein Parkschein kaufen      0$         -5$          0$   &lt;-Sieger
-Parkschein kaufen          -1$         -1$         -1$
-Savage-                    Keine
-Niehans                    Kontrolle   Nutzenentgang    Kontrolle    Nutzenentgang    Beurteilungsgröße
------------------------------------------------------------------------------------------------------------------
-Kein Parkschein kaufen      /$          /$              -5$          -4$              4$ 
-Parkschein kaufen          -1$         -1$              -1$          -1$              1$   &lt;-Sieger</t>
-  </si>
-  <si>
     <t>Unterscheidung Risiko, Unsicherheit und Sicherheit?</t>
   </si>
   <si>
-    <t>Sicherheit: Das Ergebnis einer Aktion kann eindeutig
-vorhergesagt werden. Das Nutzen eines Entscheidungsmodells ist
-nicht nötig.
-Unsicherheit: Im Gegensatz zu Sicherheit gibt es mehrere
-möglichen Ergebnisse. Das Nutzen von Entscheidungsmodellen
-ist von Vorteil. (Maximin-Regel; Maximax-Regel; Hurwicz-Regel;
-Savage-Niehans-Regel; Laplace-Regel)
-Risiko: Risiko ähnelt Unsicherheit, besitzt jedoch zusätzlich die
-Information der Eintrittswahrscheinlichkeit. (Bernoulli-Prinzip; μ-
-/Bayes-Prinzip; (μ, σ)-Prinzip)</t>
-  </si>
-  <si>
     <t>Was sind Business Units?</t>
-  </si>
-  <si>
-    <t>Business Unit =&gt; Geschäftsfeld: beschreibt einen
-Tätigkeitsbereich, welcher sich auf einen bestimmten Markt oder
-ein Segment konzentriert, das sich gut von anderen Bereichen
-abgrenzen lässt. In einer Business Unit befinden sich immer
-mehrere Abteilungen.</t>
   </si>
   <si>
     <t xml:space="preserve"> Wie / nach welchen Kriterien lassen sich Unternehmen typologisieren?
@@ -407,37 +313,10 @@
     o Limited </t>
   </si>
   <si>
-    <t xml:space="preserve">Bis 2 natürliche Personen oder Familienangehörige mindestens 50% Anteile eines Unternehmens
-Und gehören der Geschäftsführung an </t>
-  </si>
-  <si>
     <t xml:space="preserve">Relativ unbekanntes großes Unternehmen, welches Weltmarktführer in einer Branche ist. </t>
   </si>
   <si>
-    <t xml:space="preserve">&gt; Freie Güter
-&gt; Wirtschaftsgüter
-(Siehe Frage: Was sind materielle und immaterielle Güter?) </t>
-  </si>
-  <si>
     <t>Auswahlkriterien Standortwahl</t>
-  </si>
-  <si>
-    <t>&gt; Weiche Faktoren:
-     o Lebensqualität
-     o Wirtschaftsklima
-     o Politische Situation
-&gt; Beschaffungs- und Produktorienterte Faktoren
-     o Verfügbarkeit Werkstoffe
-     o Infrastruktur
-     o Arbeitskräfte
-&gt; Absatzbezogene Faktoren
-     o Lokale Nachfrage
-     o Konkurenz
-     o Zölle und Einfuhrbeschränkungen
-&gt; Staatlich festgelegte Faktoren
-     o Steuern
-     o Umweltschutz
-     o Subventionen</t>
   </si>
   <si>
     <t>Kennzeichen Einzelunternehmen</t>
@@ -469,9 +348,6 @@
   <si>
     <t>&gt; Haftung ist bei Kapitalgesellschaften auf Gesellschaftsvermögen beschränkt
 &gt; Kapitalgesellschaften werden nicht von den Gesellschaftern geführt</t>
-  </si>
-  <si>
-    <t>Unterschiede Einzeilunternehmen</t>
   </si>
   <si>
     <t>&gt; Kleingewerbe
@@ -790,6 +666,369 @@
 o Personalmanagement
 o Controlling</t>
   </si>
+  <si>
+    <t>Wie sind Entscheidungen definiert und wie lassen sie sich in den Managementzirkel einordnen?</t>
+  </si>
+  <si>
+    <t>Entscheidungssituation mit Aktionsraum, Zustandsraum und Ergebnismatrix darstellen?</t>
+  </si>
+  <si>
+    <t>· Bedeutet Gestaltung, Organisation, Durchführung, Messung und Optimierung von Prozessen
+· Konsequente Kundenorientierung
+· Transparenz vom Einzelschritt bis zu einem Gesamtprozess
+· Verständnis und Kenntnis von der eigenen Aktivität abhängigen Prozesse
+· Unterliegt der kontinuierlichen Verbesserung
+· Soll dem Siloeffekt entgegenwirken</t>
+  </si>
+  <si>
+    <t>· Werden von der Führungsebene getroffen
+· Sind für das Unternehmen von Grundlegender Bedeutung
+· Sind nur einmal oder sehr selten zu treffen
+· Bspw. Bei Gründung, Expansion oder Aufgabe eines Unternehmens</t>
+  </si>
+  <si>
+    <t>Planung -&gt; Entscheidung -&gt; Realisierung -&gt; Kontrolle (-&gt; Planung)</t>
+  </si>
+  <si>
+    <t>Eine Entscheidung zu treffen, bedeutet die bewusste Auswahl zwischen mehreren Handlungsmöglichkeiten zur Erreichung von Zielen.</t>
+  </si>
+  <si>
+    <t>Sicherheit: Das Ergebnis einer Aktion kann eindeutig vorhergesagt werden. Das Nutzen eines Entscheidungsmodells ist nicht nötig.
+Unsicherheit: Im Gegensatz zu Sicherheit gibt es mehrere möglichen Ergebnisse. Das Nutzen von Entscheidungsmodellen ist von Vorteil. (Maximin-Regel; Maximax-Regel; Hurwicz-Regel; Savage-Niehans-Regel; Laplace-Regel)
+Risiko: Risiko ähnelt Unsicherheit, besitzt jedoch zusätzlich die Information der Eintrittswahrscheinlichkeit. (Bernoulli-Prinzip; μ-/Bayes-Prinzip; (μ, σ)-Prinzip)</t>
+  </si>
+  <si>
+    <t>Business Unit =&gt; Geschäftsfeld: beschreibt einen Tätigkeitsbereich, welcher sich auf einen bestimmten Markt oder ein Segment konzentriert, das sich gut von anderen Bereichen abgrenzen lässt. In einer Business Unit befinden sich immer mehrere Abteilungen.</t>
+  </si>
+  <si>
+    <t>Durchführen von Entscheidungsmodellen, bspw.:
+Maximax                    Keine
+                           Kontrolle   Kontrolle   Beurteilungsgröße
+--------------------------------------------------------------------
+Kein Parkschein kaufen      0$         -5$          0$   &lt;-Sieger
+Parkschein kaufen          -1$         -1$         -1$
+Savage-                    Keine
+Niehans                    Kontrolle   Nutzenentgang    Kontrolle    Nutzenentgang    Beurteilungsgröße
+-----------------------------------------------------------------------------------------------------------------
+Kein Parkschein kaufen      /$          /$              -5$          -4$              4$ 
+Parkschein kaufen          -1$         -1$              -1$          -1$              1$   &lt;-Sieger</t>
+  </si>
+  <si>
+    <t>&gt; Weiche Faktoren:
+     o Lebensqualität
+     o Wirtschaftsklima
+     o Politische Situation
+&gt; Beschaffungs- und Produktorienterte Faktoren
+     o Verfügbarkeit Werkstoffe
+     o Infrastruktur
+     o Arbeitskräfte
+&gt; Absatzbezogene Faktoren
+     o Lokale Nachfrage
+     o Konkurenz
+     o Zölle und Einfuhrbeschränkungen
+&gt; Staatlich festgelegte Faktoren
+     o Steuern
+     o Umweltschutz
+     o Subventionen
+&gt; Folie 38</t>
+  </si>
+  <si>
+    <t>Unterschiede Einzelunternehmen</t>
+  </si>
+  <si>
+    <t>Was ist eine AG?</t>
+  </si>
+  <si>
+    <t>Wodurch sind Personengesellschaften gekennzeichnet?</t>
+  </si>
+  <si>
+    <t>Was ist das besondere an einer KG?</t>
+  </si>
+  <si>
+    <t>Was passiert wenn eine GmbH an die Börse geht?</t>
+  </si>
+  <si>
+    <t>Was kennzeichnet eine KG?</t>
+  </si>
+  <si>
+    <t>Was ist eine Kooperation?</t>
+  </si>
+  <si>
+    <t>Was ist die Aufgabe des Verbands?</t>
+  </si>
+  <si>
+    <t>Für wen gelten die Beteiligunsquoten?</t>
+  </si>
+  <si>
+    <t>Ziele von Unternehmensverbindungen?</t>
+  </si>
+  <si>
+    <t>Was bedeutet Management im engeren Sinne?</t>
+  </si>
+  <si>
+    <t>Was ist der Unterschied zwischen Management und Leadership?</t>
+  </si>
+  <si>
+    <t>Die Aktiengesellschaft AG ist eine Kapitalgesellschaft.
+Das Leitungsorgan, der Vorstand, leitet die die AG Eigenverantwortlich.
+Diese Berichten an ein Kontrollorgan, den Aufsichtsrat, welcher den Vorstand beruft und überbewacht.
+Der Aufsichtsrat besteht aus den gewählten Arbeitnehmervertreter der Belegschaft und den gewählten Vertretern aus der Hauptversammlung.
+Die Hauptversammlung ist das Beschlussorgan, welches aus Aktionären besteht, wo über Grundlegende Fragen, wie Satzungsänderungen, Gewinnverteilung oder Verschmelzungen geklärt werden. 
+Startkapital von 50.000 ist notwendig.</t>
+  </si>
+  <si>
+    <t>Die Personengesellschaft besteht aus Gesellschaftern, welche gesamtschuldnerisch und unbeschränkt bis ins Privatvermögen haften. Geschäftsführung und Vertretung wird von den Gesellschaftern übernommen, Selbsorganschaft.</t>
+  </si>
+  <si>
+    <t>Die KG ist eine Sonderform der OHG. Sie erlaubt mehrere Komplementäre als Geschäftsführung und Vertretung, welche Vollhafter für die Gesellschaft sind. Diese haben eine Haftung, die gesamtschuldnerisch mit dem Privatvermögen und/oder in Höhe der Kapitalanlage festgelegt wird.</t>
+  </si>
+  <si>
+    <t>Eine Gesellschafteranteil der GmBH kann nicht ohne notarielle Beglaubigung verkauft werden. Um an der Börse Aktien zu verkaufen muss die GmBH zur AG oder eine anderen Mischform werden
+https://www.boehms-dax-strategie.de/boersenschule/aktien/aktiengesellschaft-worin-besteht-der-unterschied-zu-einer-gesellschaft-mit-beschraenkter-haftung.html</t>
+  </si>
+  <si>
+    <t>Eine Kapitalgesellschaft kann mehrere Geschäftsführer, Komplementäre, haben.</t>
+  </si>
+  <si>
+    <t>Kooperation bezeichnet die freiwillige Verbindung von Unternehmen. Die Unternehmen bleiben dabei rechtlich und
+wirtschaftlich selbstständig. Nur im Kooperationsbereich ist die wirtschaftliche Autonomie eingeschränkt.</t>
+  </si>
+  <si>
+    <t>Ein Unternehmensverband ist die freiwillige oder gesetzlich vorgeschriebene Vereinigung von Unternehmen. Der Verband fördert die Interessen der Mitglieder und vertritt sie gegenüber Dritten wie Regierung und Öffentlichkeit</t>
+  </si>
+  <si>
+    <t>Beteiligungsquoten gelten für die Shareholder:</t>
+  </si>
+  <si>
+    <t>Management bezeichnet zum einen eine betriebswirtschaftliche Funktion
+und zum anderen die Personengruppe, die Führungspositionen innehat. Die Aufgabe des Managements ist es, Unternehmen zielgerichtet zu gestalten, zu steuern und weiterzuentwickeln.
+Führung im engeren Sinne betrifft die Personalführung. Sind Planung und Entscheidung vollzogen, geht es im Rahmen der Realisierung um die konkrete Veranlassung zur
+Arbeitsausführung. Im Rahmen der Personalführung wird das handeln von
+Personen und Gruppen durch legitime Beeinflussung auf die Verwirklichung
+der Unternehmensziele ausgerichtet.</t>
+  </si>
+  <si>
+    <t>Kriterien: Management | Leadership
+Fokus: Ziele effizient erfüllen | Visionen und effektive Strategie entwickeln
+Motto: Do the things right | Do the right thing
+Methoden: z.B. Projektmanagement | z.B. Strategieentwicklung
+Stärke: Probleme lösen | Menschen inspirieren</t>
+  </si>
+  <si>
+    <t>&gt; Wirtschaftlichkeit steigern
+&gt; Verhandlungsmacht steigern
+&gt; Risiken reduzieren</t>
+  </si>
+  <si>
+    <t>Was macht das Management in der Planung?</t>
+  </si>
+  <si>
+    <t>Was macht das Management in der Entscheidungsphase?</t>
+  </si>
+  <si>
+    <t>Was passiert bei der Realisierung?</t>
+  </si>
+  <si>
+    <t>Was wird bei der Kontrolle gemacht?</t>
+  </si>
+  <si>
+    <t>Was kennzeichnet Ziele?</t>
+  </si>
+  <si>
+    <t>Können Ziele sich gegenseitig beeinflussen?</t>
+  </si>
+  <si>
+    <t>Was ist eine (Unternehmens-) Strategie?</t>
+  </si>
+  <si>
+    <t>Nenne die Phasen eines Lebenszyklus eines Produkts / einer Branche.</t>
+  </si>
+  <si>
+    <t>Wie nennt man neue Produkte auf neuen Märkten?</t>
+  </si>
+  <si>
+    <t>Wo ist der höchste Finanzbedarf notwendig?</t>
+  </si>
+  <si>
+    <t>Welche Strategie verfolgt man am besten bei den Poor Dogs?</t>
+  </si>
+  <si>
+    <t>Unterschied zwischen inneren und äußeren Unternehmensfaktoren?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2. Management-/Führungsprozessschritt
+ • Bewertung der unterschiedlichen Handlungsmöglichkeiten
+ • Auswählen der nützlichsten Handlungsmöglichkeit </t>
+  </si>
+  <si>
+    <t>1. Management-/Führungsprozessschritt
+1) Aktuelle Lage betrachten (Konkurrenten und Technologien)
+2) Situationsanalyse (SWOT) ausführen
+3) Entsprechend der Lage Ziele definieren/anpassen
+4) (Alternative) Wege zum Erreichen der Ziele festlegen</t>
+  </si>
+  <si>
+    <t>3. Management-/Führungsprozessschritt
+ • Überzeugung und Motivierung aller Beteiligten
+ • Aufbauen von Strukturen und Systemen zur Ausführung und Erreichen der Ziele</t>
+  </si>
+  <si>
+    <t>4. Management-/Führungsprozessschritt 
+ • Abweichungsanalyse: Soll-Ist-Vergleich
+ • Berichten der Kenngrößen (Report) an alle involvierten Personen und Bereiche
+(Bei 1 wieder beginnen)</t>
+  </si>
+  <si>
+    <t>• Erreichen eines erwünschten Zustands in der Zukunft. 
+• Ist ein Maßstab zum Messen unternehmerischer Handlungen
+• Ziele müssen operational (definiert und messbar) sein. [Zielinhalt, Zielausmaß, Zeitlicher Bezug, Geltungsbereich, Ressourcen]</t>
+  </si>
+  <si>
+    <t>Ja!
+Wird ein Ziel erreicht, wirkt sich das auch oft positiv auf die anderen Ziele gleicher Kategorie aus.  komplementäre Ziele
+Ziele aus verschiedenen Kategorien konkurrieren oft miteinander.  konkurrierende Ziele
+Antinomische Ziele lassen sich gar nicht vereinbaren
+Lediglich indifferente Ziele beeinflussen sich nicht gegenseitig</t>
+  </si>
+  <si>
+    <t>Langfristige Pläne des strategischen Managements zur Vorgehensweise, um Unternehmensbestand und -erfolg zu sichern und die gestellten Ziele zu erreichen</t>
+  </si>
+  <si>
+    <t>1.	Einführung 
+2.	Wachstum
+3.	Reife
+4.	Sättigung
+5.	Rückgang</t>
+  </si>
+  <si>
+    <t>Questionmarks (Nachwuchsprodukt)
+Unsicher wegen unbestimmter Marktentwicklung</t>
+  </si>
+  <si>
+    <t>Bei jungen Märkten mit neu eingeführten und wachsenden Produkten und Branchen.
+Questionmarks (hoher Invest durch Wachstumsfinanzierung, Markterschließung, F&amp;E) und Stars (finanzieren sich meist schon selbst)</t>
+  </si>
+  <si>
+    <t>Desinvestitionsstrategie
+Zurückziehen vom Markt und Produkte vom Markt nehmen</t>
+  </si>
+  <si>
+    <t>Innere Unternehmensfaktoren sind beeinflussbar
+ • Stärken und Schwächen eines Unternehmens
+Äußere Unternehmensfaktoren sind nicht beeinflussbar
+ • Chancen und Risiken der Umwelt(faktoren)</t>
+  </si>
+  <si>
+    <t>Welche Kreativitätsmethode wird bei Strategien gerne verwendet?</t>
+  </si>
+  <si>
+    <t>Was ist die Marktdurchdringung?</t>
+  </si>
+  <si>
+    <t>Was ist die Marktentwicklung?</t>
+  </si>
+  <si>
+    <t>Was ist Diversifikation?</t>
+  </si>
+  <si>
+    <t>Was macht Porters Wettbewerbsstrategien aus?</t>
+  </si>
+  <si>
+    <t>Was kennzeichnet die Unternehmenskultur?</t>
+  </si>
+  <si>
+    <t>Was bedeutet Corporate Governance?</t>
+  </si>
+  <si>
+    <t>Was bedeutet Corporate Identity?</t>
+  </si>
+  <si>
+    <t>Was sind Wettbewerb Strategien?</t>
+  </si>
+  <si>
+    <t>Skizzieren Sie eine Wertschöpfungskette anhand einer Wurst.</t>
+  </si>
+  <si>
+    <t>Wie unterscheidet sich Effektivität und Effizient?</t>
+  </si>
+  <si>
+    <t>Was ist die Produktentwicklung?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SWOT-Analyse:            
+Porters Five Forces:  
+4-Felder-Matrix:  
+Ansoff-Matrix:  </t>
+  </si>
+  <si>
+    <t>· Wachstumsstrategie von Ansoff
+· Gegenwärtig bestehendes Produkt auf gegenwärtig bestehendem Markt
+· Es geht dabei um das Gewinnen neuer Marktanteile eines bereits bestehenden Marktes mit Produkten aus einem bestehenden Sortiment.
+· Bestehende Kunden zum Kauf vom mehr Produkten motivieren, oder Kunden von der Konkurrenz abwerben
+· Methoden: Preis runtersetzten, Gratisproben anbieten, etc.</t>
+  </si>
+  <si>
+    <t>· Wachstumsstrategie von Ansoff
+· Entwicklung eines neuen Markts mit bestehendem Produkt
+· Bspw. Erschließung neuer Länder und neuer Zielgruppen sein
+· Meist nur geringe Veränderungen am Produkt oder Produktlinien vorgenommen, um es an die neuen Absatzmärkte anzupassen
+· Beispiel: Sportschuhe als Sneakers verkaufen</t>
+  </si>
+  <si>
+    <t>· Wachstumsstrategie von Ansoff
+· Für einen bereits bestehenden Absatzmarkt mit existierenden (Bestands-)Kunden wird ein neues Produkt entwickelt und eingeführt.
+· Bspw. bei einem Austausch bestehender Produkte oder bei einer Sortimentserweiterung
+· Vorteil ist, dass Kunden und Absatzmarkt für das Unternehmen bereits bekannt sind und die Innovation somit voraussichtlich Erfolg hat.</t>
+  </si>
+  <si>
+    <t>· Wachstumsstrategie von Ansoff
+· Auf neuen Märkten völlig neue Produkte anbieten
+· Wird zumeist von Startups und Gründungsunternehmen angewandt
+· Neue Märkte können z.B. auch noch unerschlossenen geographischen Regionen oder neue Marktsegmente sein
+· Größtes Potenzial für Innovation und Wachstum
+· Größten Risiken zum Scheitern</t>
+  </si>
+  <si>
+    <t>Drei Wettbewerbsstrategien nach Porter:
+o	Differenzierungsstrategie: Produktpalette differenziert sich von der Konkurrenz (Bsp. BIO statt normal).
+o	Kostenführerschaft: durch effiziente Produktion Kostenführer werden.
+o	Nischenstrategie: mithilfe eines Produkts eine neue Nische etablieren und diese übernehmen.
+Porter unterscheidet einerseits zwischen den vom Unternehmen angestrebten Vorteilen Der niedrigeren Kosten oder der Differenzierung von anderen Produkten und Unternehmen. Andererseits unterscheidet er auch darin wie fokussiert das Ziel ist, d.h., ob es ein stark fokussiertes, enges, Ziel ist, oder, ob das Ziel weitreichender und umfassender formuliert ist.</t>
+  </si>
+  <si>
+    <t>· Muster aus in der Vergangenheit bewährten Grundprämissen für Bewältigung von Problemen.
+· Muster gilt als bindend.
+· Wird im Unternehmen als rational und emotional korrekter Umgang mit Problemen weitergegeben.
+·  ist schwer beeinflussbar (Eisberg-Modell), trägt aber maßgeblich zum Unternehmenserfolg bei.</t>
+  </si>
+  <si>
+    <t>· Umfasst Grundsätze und Regeln, mit denen die Strukturen und das Verhalten des Topmanagements gesteuert werden sollen
+· Corporate Governance ist die verantwortungsvolle und transparente (wirksame) Unternehmenssteuerung und -überwachung.</t>
+  </si>
+  <si>
+    <t>· bildet die Firmen-Persönlichkeit
+· setzt sich aus:
+o	dem generellen Erscheinungsbild des Unternehmens und der Unternehmensstruktur (Corporate Design),
+o	dem Verhalten des Unternehmens (Corporate Behaviour)
+o	und der Kommunikation innerhalb des Unternehmens, sowie Marktkommunikation, aber auch aus der Kommunikation nach außen, bspw. PR-Arbeit (Corporate Communication)
+· zusammen</t>
+  </si>
+  <si>
+    <t>· Konkurrenzgereichtete Strategien
+· Legen fest, wie sich Unternehmen Wettbewerbsvorteile gegenüber ihren Konkurrenten verschaffen und sichern wollen</t>
+  </si>
+  <si>
+    <t>1. Gewinnungsbetrieb: Schweinezucht (Naturprodukt = Schwein)
+2. Aufbereitungsbetriebe: Schlachthof
+(Zwischenprodukte = große Mengen an Fleisch und Speck)
+3. Verarbeitungsbetriebe: Metzgerei/Fleischerei (Endprodukt = Wurst)
+4. Handel: meist an der Theke beim Metzger oder Handel in Läden.
+5. Endkunde mit Endprodukt Wurst.</t>
+  </si>
+  <si>
+    <t>Effektivität beschreibt die Wirksamkeit einer bestimmten Handlung oder Aktion, um ein gegebenes Ziel zu erreichen (Motto: Das Richtige tun. =&gt; Do the right things!).
+Effizienz beschäftigt sich hingegen mit dem Verhältnis zwischen Ziel und den Ressourcen, die man zu dessen Erreichung einsetzt (ökonomisches Prinzip) (Motto: Etwas richtig tun/machen. =&gt; Do things right!).</t>
+  </si>
 </sst>
 </file>
 
@@ -812,7 +1051,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -829,11 +1068,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -842,6 +1090,15 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1158,10 +1415,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F34EFBC5-F813-4A89-BD3A-13F91193891E}">
-  <dimension ref="A1:B53"/>
+  <dimension ref="A1:B107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A50" workbookViewId="0">
-      <selection activeCell="A57" sqref="A57"/>
+    <sheetView tabSelected="1" topLeftCell="A99" workbookViewId="0">
+      <selection activeCell="A107" sqref="A107:B107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1172,250 +1429,250 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>99</v>
+        <v>80</v>
       </c>
       <c r="B1" t="s">
-        <v>100</v>
+        <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>101</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="85.5" x14ac:dyDescent="0.45">
       <c r="A3" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A4" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A5" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A6" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A7" s="2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A8" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A9" s="2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>102</v>
+        <v>83</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A10" s="2" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>103</v>
+        <v>84</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="99.75" x14ac:dyDescent="0.45">
       <c r="A11" s="3" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>104</v>
+        <v>85</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="85.5" x14ac:dyDescent="0.45">
       <c r="A12" s="1" t="s">
-        <v>105</v>
+        <v>86</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>115</v>
+        <v>96</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="85.5" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="s">
-        <v>106</v>
+        <v>87</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>116</v>
+        <v>97</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="114" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
-        <v>107</v>
+        <v>88</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>117</v>
+        <v>98</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="156.75" x14ac:dyDescent="0.45">
       <c r="A15" s="1" t="s">
-        <v>108</v>
+        <v>89</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>118</v>
+        <v>99</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="114" x14ac:dyDescent="0.45">
       <c r="A16" s="1" t="s">
-        <v>109</v>
+        <v>90</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>119</v>
+        <v>100</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="327.75" x14ac:dyDescent="0.45">
       <c r="A17" s="1" t="s">
-        <v>110</v>
+        <v>91</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>120</v>
+        <v>101</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A18" s="1" t="s">
-        <v>111</v>
+        <v>92</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>121</v>
+        <v>102</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="114" x14ac:dyDescent="0.45">
       <c r="A19" s="1" t="s">
-        <v>112</v>
+        <v>93</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="142.5" x14ac:dyDescent="0.45">
       <c r="A20" s="1" t="s">
-        <v>114</v>
+        <v>95</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>123</v>
+        <v>104</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A21" s="3" t="s">
-        <v>113</v>
+        <v>94</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>124</v>
+        <v>105</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A22" s="1" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="299.25" x14ac:dyDescent="0.45">
       <c r="A23" s="1" t="s">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>62</v>
+        <v>47</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="171" x14ac:dyDescent="0.45">
       <c r="A24" s="1" t="s">
-        <v>63</v>
+        <v>48</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>64</v>
+        <v>49</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A25" s="1" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>125</v>
+        <v>106</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A26" s="1" t="s">
-        <v>66</v>
+        <v>51</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>77</v>
+        <v>61</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A27" s="1" t="s">
-        <v>67</v>
+        <v>52</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>126</v>
+        <v>107</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="199.5" x14ac:dyDescent="0.45">
       <c r="A28" s="1" t="s">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="185.25" x14ac:dyDescent="0.45">
       <c r="A29" s="1" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="171" x14ac:dyDescent="0.45">
       <c r="A30" s="1" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>73</v>
+        <v>58</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="99.75" x14ac:dyDescent="0.45">
       <c r="A31" s="3" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>72</v>
+        <v>57</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="42.75" x14ac:dyDescent="0.45">
@@ -1423,604 +1680,611 @@
         <v>0</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>127</v>
+        <v>108</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A33" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>128</v>
+        <v>109</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A34" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="99.75" x14ac:dyDescent="0.45">
       <c r="A35" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>129</v>
+        <v>110</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A36" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A37" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="57" x14ac:dyDescent="0.45">
       <c r="A38" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A39" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="57" x14ac:dyDescent="0.45">
       <c r="A40" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A41" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A42" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A43" s="1" t="s">
-        <v>130</v>
+        <v>111</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>131</v>
+        <v>112</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A44" s="1" t="s">
-        <v>132</v>
+        <v>113</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>133</v>
+        <v>114</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A45" s="1" t="s">
-        <v>134</v>
+        <v>115</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>135</v>
+        <v>116</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A46" s="1" t="s">
-        <v>136</v>
+        <v>117</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>137</v>
+        <v>118</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A47" s="1" t="s">
-        <v>138</v>
+        <v>119</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>139</v>
+        <v>120</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A48" s="1" t="s">
-        <v>140</v>
+        <v>121</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>141</v>
+        <v>122</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="57" x14ac:dyDescent="0.45">
       <c r="A49" s="1" t="s">
-        <v>142</v>
+        <v>123</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>143</v>
+        <v>124</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="57" x14ac:dyDescent="0.45">
       <c r="A50" s="1" t="s">
-        <v>144</v>
+        <v>125</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>145</v>
+        <v>126</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A51" s="1" t="s">
-        <v>146</v>
+        <v>127</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>147</v>
+        <v>128</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="85.5" x14ac:dyDescent="0.45">
       <c r="A52" s="1" t="s">
-        <v>148</v>
+        <v>129</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>149</v>
+        <v>130</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="156.75" x14ac:dyDescent="0.45">
       <c r="A53" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" ht="85.5" x14ac:dyDescent="0.45">
+      <c r="A54" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" ht="71.25" x14ac:dyDescent="0.45">
+      <c r="A55" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" ht="85.5" x14ac:dyDescent="0.45">
+      <c r="A56" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" ht="57" x14ac:dyDescent="0.45">
+      <c r="A57" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A58" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A59" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" ht="171" x14ac:dyDescent="0.45">
+      <c r="A60" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" ht="99.75" x14ac:dyDescent="0.45">
+      <c r="A61" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A62" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" ht="242.25" x14ac:dyDescent="0.45">
+      <c r="A63" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="B63" s="6" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A64" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" ht="57" x14ac:dyDescent="0.45">
+      <c r="A65" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A66" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A67" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" ht="156.75" x14ac:dyDescent="0.45">
+      <c r="A68" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A69" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A70" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A71" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A72" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B72" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" ht="114" x14ac:dyDescent="0.45">
+      <c r="A73" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A74" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A75" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" ht="57" x14ac:dyDescent="0.45">
+      <c r="A76" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A77" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A78" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A79" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="B53" s="3" t="s">
+      <c r="B79" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A80" s="4" t="s">
         <v>151</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A81" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" ht="128.25" x14ac:dyDescent="0.45">
+      <c r="A82" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" ht="71.25" x14ac:dyDescent="0.45">
+      <c r="A83" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="B83" s="3" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" ht="71.25" x14ac:dyDescent="0.45">
+      <c r="A84" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A85" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A86" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" ht="57" x14ac:dyDescent="0.45">
+      <c r="A87" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" ht="57" x14ac:dyDescent="0.45">
+      <c r="A88" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" ht="85.5" x14ac:dyDescent="0.45">
+      <c r="A89" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A90" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" ht="71.25" x14ac:dyDescent="0.45">
+      <c r="A91" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A92" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A93" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A94" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" ht="57" x14ac:dyDescent="0.45">
+      <c r="A95" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="B95" s="3" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" ht="57" x14ac:dyDescent="0.45">
+      <c r="A96" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" ht="85.5" x14ac:dyDescent="0.45">
+      <c r="A97" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" ht="85.5" x14ac:dyDescent="0.45">
+      <c r="A98" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" ht="85.5" x14ac:dyDescent="0.45">
+      <c r="A99" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" ht="85.5" x14ac:dyDescent="0.45">
+      <c r="A100" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" ht="114" x14ac:dyDescent="0.45">
+      <c r="A101" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" ht="57" x14ac:dyDescent="0.45">
+      <c r="A102" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" ht="57" x14ac:dyDescent="0.45">
+      <c r="A103" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" ht="99.75" x14ac:dyDescent="0.45">
+      <c r="A104" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A105" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" ht="85.5" x14ac:dyDescent="0.45">
+      <c r="A106" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" ht="71.25" x14ac:dyDescent="0.45">
+      <c r="A107" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="B107" s="3" t="s">
+        <v>213</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CB0CB76-BD0D-4D43-B8C1-BE17F5856CFF}">
-  <dimension ref="A1:B51"/>
-  <sheetViews>
-    <sheetView topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <cols>
-    <col min="1" max="1" width="54.06640625" customWidth="1"/>
-    <col min="2" max="2" width="79.9296875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A1" t="s">
-        <v>99</v>
-      </c>
-      <c r="B1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="1"/>
-    </row>
-    <row r="6" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="57" x14ac:dyDescent="0.45">
-      <c r="A8" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="71.25" x14ac:dyDescent="0.45">
-      <c r="A10" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A11" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A12" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A13" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="85.5" x14ac:dyDescent="0.45">
-      <c r="A14" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A15" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A16" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A17" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A18" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="71.25" x14ac:dyDescent="0.45">
-      <c r="A19" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="71.25" x14ac:dyDescent="0.45">
-      <c r="A20" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A21" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="114" x14ac:dyDescent="0.45">
-      <c r="A22" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" ht="85.5" x14ac:dyDescent="0.45">
-      <c r="A23" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" ht="71.25" x14ac:dyDescent="0.45">
-      <c r="A24" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" ht="85.5" x14ac:dyDescent="0.45">
-      <c r="A25" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" ht="57" x14ac:dyDescent="0.45">
-      <c r="A26" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A27" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A28" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" ht="156.75" x14ac:dyDescent="0.45">
-      <c r="A29" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" ht="142.5" x14ac:dyDescent="0.45">
-      <c r="A30" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" ht="71.25" x14ac:dyDescent="0.45">
-      <c r="A31" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" ht="71.25" x14ac:dyDescent="0.45">
-      <c r="A32" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" ht="313.5" x14ac:dyDescent="0.45">
-      <c r="A33" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" ht="171" x14ac:dyDescent="0.45">
-      <c r="A34" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A35" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A36" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A37" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" ht="199.5" x14ac:dyDescent="0.45">
-      <c r="A38" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" ht="185.25" x14ac:dyDescent="0.45">
-      <c r="A39" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" ht="171" x14ac:dyDescent="0.45">
-      <c r="A40" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" ht="99.75" x14ac:dyDescent="0.45">
-      <c r="A41" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" ht="228" x14ac:dyDescent="0.45">
-      <c r="A42" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A43" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" ht="57" x14ac:dyDescent="0.45">
-      <c r="A44" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A45" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A46" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" ht="156.75" x14ac:dyDescent="0.45">
-      <c r="A47" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A48" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A49" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A50" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A51" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/fragen_abwl.xlsx
+++ b/fragen_abwl.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20393"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marvi\Desktop\abwl_recht\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leonk\git\THM_ABWL_RECHT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFCA4520-2880-4E9B-9187-1BE8EBBB2874}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{912C099C-78B7-4282-B12D-8D193E98CA42}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5625" yWindow="540" windowWidth="16875" windowHeight="10635" xr2:uid="{A466E4F3-40EA-4A10-A7EA-5A12C2557BBF}"/>
   </bookViews>
@@ -20,35 +20,17 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="214">
   <si>
     <t>Was ist der Realgüterbereich?</t>
   </si>
   <si>
-    <t>Der Realgüterbereich besteht aus der Materialwirtschaft, der Produktion und das Marketing.
-Untergeordnete ist noch die Logistik, die dafür sorgt, dass das Material zur richtigen Zeit am richtigen Ort ist.</t>
-  </si>
-  <si>
     <t>Was macht das Marketing?</t>
-  </si>
-  <si>
-    <t>Übergeordnet ist das Innovationsmanagement, welches für die Weiterentwicklung des Produkts verantwortlich ist.</t>
   </si>
   <si>
     <t>Was macht die Unternehmensführung?</t>
@@ -112,10 +94,6 @@
   </si>
   <si>
     <t>Wie wird Bedarf definiert?</t>
-  </si>
-  <si>
-    <t>· Summe der mit Kaufkraft ausgestatteten Bedürfnisse.
-· Bedürfnisse: Mangelgefühl oder unerfüllter Wunsch</t>
   </si>
   <si>
     <t>Welche Arten von Bedürfnissen gibt es?</t>
@@ -174,32 +152,10 @@
     <t>Was sind öffentliche Haushalte?</t>
   </si>
   <si>
-    <t>· Bund, Länder, Kommunen. Sie leiten die Bedürfnisse aus denen
-der Haushalte ab → Kollek􀆟vbedürfnisse
-· Der öffentliche Haushalt dient primär dazu, den Bürgern
-öffentliche Leistungen (z.B. Sicherheit, Bildung) zur Verfügung zu
-stellen.</t>
-  </si>
-  <si>
     <t>Was ist das Erfahrungsobjekt der BWL?</t>
   </si>
   <si>
-    <t>· Die Betriebswirtschaft betrachtet den Betrieb unter dem
-ökonomischen Aspekt der Effizienz eines Betriebes um das
-Erkenntnisobjekt „Wirtschaften im Betrieb“ zu definieren</t>
-  </si>
-  <si>
     <t>Unterschied VWL und BWL?</t>
-  </si>
-  <si>
-    <t>· Während sich die Betriebswirtschaftslehre mit Prozessen innerhalb
-eines einzelnen Unternehmens beschäftigt, beleuchtet die
-Volkswirtschaftslehre gesamtwirtschaftliche Zusammenhänge
-· Stichwort: Frosch- (BWL) vs. Vogelperspektive (VWL)
-· BWL unterteilt sich in: Allgemeine BWL (Standort, Rechtsform,
-Verbindungen) und Spezielle BWL (einzelne Institutionen der BWL)
-· Beide Formen beschreiben die Funktionale BWL (Grundlegende
-Funktionen der BWL: Marketing, etc.)</t>
   </si>
   <si>
     <t>Nennen Sie je eine Funktion aus den Realgüterbereich, dem Finanzbereich und dem Dispobereich?</t>
@@ -220,76 +176,16 @@
     <t>Wozu dient Prozessmanagement?</t>
   </si>
   <si>
-    <t>• Bedeutet Gestaltung, Organisation, Durchführung, Messung und Optimierung von Prozessen
-• Konsequente Kundenorientierung
-• Transparenz vom Einzelschritt bis zu einem Gesamtprozess
-• Verständnis und Kenntnis von der eigenen Aktivität abhängigen Prozesse
-• Unterliegt der kontinuierlichen Verbesserung
-• Soll dem Siloeffekt entgegenwirken</t>
-  </si>
-  <si>
     <t>Was sind konstitutive Entscheidungen?</t>
   </si>
   <si>
-    <t>• Werden von der Führungsebene getroffen
-• Sind für das Unternehmen von Grundlegender Bedeutung
-• Sind nur einmal oder sehr selten zu treffen
-• Bspw. Bei Gründung, Expansion oder Aufgabe eines Unternehmens</t>
-  </si>
-  <si>
     <t>Wie sieht der Managementzirkel aus?</t>
   </si>
   <si>
-    <t>Planung -&gt; Entscheidung -&gt; Realisierung -&gt; Kontrolle</t>
-  </si>
-  <si>
-    <t>Wie sind Entscheidungen definiert und wie lassen sie sich in den Management-zirkel einordnen?</t>
-  </si>
-  <si>
-    <t>Eine Entscheidung zu treffen, bedeutet die bewusste Auswahl
-zwischen mehreren Handlungsmöglichkeiten zur Erreichung von
-Zielen.</t>
-  </si>
-  <si>
-    <t>Entscheidungssituation mit Aktionsraum, Zustandsraum und
-Ergebnismatrix darstellen?</t>
-  </si>
-  <si>
-    <t>Maximax                    Keine
-                           Kontrolle   Kontrolle   Beurteilungsgröße
---------------------------------------------------------------------
-Kein Parkschein kaufen      0$         -5$          0$   &lt;-Sieger
-Parkschein kaufen          -1$         -1$         -1$
-Savage-                    Keine
-Niehans                    Kontrolle   Nutzenentgang    Kontrolle    Nutzenentgang    Beurteilungsgröße
------------------------------------------------------------------------------------------------------------------
-Kein Parkschein kaufen      /$          /$              -5$          -4$              4$ 
-Parkschein kaufen          -1$         -1$              -1$          -1$              1$   &lt;-Sieger</t>
-  </si>
-  <si>
     <t>Unterscheidung Risiko, Unsicherheit und Sicherheit?</t>
   </si>
   <si>
-    <t>Sicherheit: Das Ergebnis einer Aktion kann eindeutig
-vorhergesagt werden. Das Nutzen eines Entscheidungsmodells ist
-nicht nötig.
-Unsicherheit: Im Gegensatz zu Sicherheit gibt es mehrere
-möglichen Ergebnisse. Das Nutzen von Entscheidungsmodellen
-ist von Vorteil. (Maximin-Regel; Maximax-Regel; Hurwicz-Regel;
-Savage-Niehans-Regel; Laplace-Regel)
-Risiko: Risiko ähnelt Unsicherheit, besitzt jedoch zusätzlich die
-Information der Eintrittswahrscheinlichkeit. (Bernoulli-Prinzip; μ-
-/Bayes-Prinzip; (μ, σ)-Prinzip)</t>
-  </si>
-  <si>
     <t>Was sind Business Units?</t>
-  </si>
-  <si>
-    <t>Business Unit =&gt; Geschäftsfeld: beschreibt einen
-Tätigkeitsbereich, welcher sich auf einen bestimmten Markt oder
-ein Segment konzentriert, das sich gut von anderen Bereichen
-abgrenzen lässt. In einer Business Unit befinden sich immer
-mehrere Abteilungen.</t>
   </si>
   <si>
     <t xml:space="preserve"> Wie / nach welchen Kriterien lassen sich Unternehmen typologisieren?
@@ -417,19 +313,405 @@
     o Limited </t>
   </si>
   <si>
-    <t xml:space="preserve">Bis 2 natürliche Personen oder Familienangehörige mindestens 50% Anteile eines Unternehmens
-Und gehören der Geschäftsführung an </t>
-  </si>
-  <si>
     <t xml:space="preserve">Relativ unbekanntes großes Unternehmen, welches Weltmarktführer in einer Branche ist. </t>
   </si>
   <si>
-    <t xml:space="preserve">&gt; Freie Güter
+    <t>Auswahlkriterien Standortwahl</t>
+  </si>
+  <si>
+    <t>Kennzeichen Einzelunternehmen</t>
+  </si>
+  <si>
+    <t>&gt; Inhaber-Geführt
+&gt; Unbeschränkte Haftbarkeit bis Privatvermögen
+&gt; Alleinige Geschäftsführung und Vertretung</t>
+  </si>
+  <si>
+    <t>Kennzeichen Personengesellschaft</t>
+  </si>
+  <si>
+    <t>&gt; Durch mehrere Gesellschafter geführt
+&gt; Unbeschränkte Haftbarkeit bis ins Privatvermögen
+&gt; Alle Gesellschafter sind haftbar
+&gt; Geschäftsführung und Vertretung liegt bei Gesellschaftern</t>
+  </si>
+  <si>
+    <t>Kennzeichen Kapitalgesellschaft</t>
+  </si>
+  <si>
+    <t>&gt; Haftung beschränkt auf Gesellschaftsvermögen
+&gt; Geschäftsführung liegt bei Dritten.</t>
+  </si>
+  <si>
+    <t>Unterschied Einzelunternehmen und Personengesellschaften zu Kapitalgesellschaft</t>
+  </si>
+  <si>
+    <t>&gt; Haftung ist bei Kapitalgesellschaften auf Gesellschaftsvermögen beschränkt
+&gt; Kapitalgesellschaften werden nicht von den Gesellschaftern geführt</t>
+  </si>
+  <si>
+    <t>&gt; Kleingewerbe
+     o Gewerbeanmeldung
+     o Kein Handelsregistereintrag notwendig
+&gt; Handelsgewerbe
+     o Gewerbeanmeldung
+     o Eintrag Handelsregister
+     o Muss doppelte Buchhaltung durchführen
+&gt; Freiberufler
+     o Keine Gewerbeanmeldung
+     o Kein Handelsregistereintrag
+     o Werden durch Standesorganisation beaufsichtigt (z.B. Ärztekammer)</t>
+  </si>
+  <si>
+    <t>Was passiert, wenn man ein Gewerbe ohne Rechtsform betreib im Streitfall?</t>
+  </si>
+  <si>
+    <t>&gt; Wird es bei der Gründung nicht anderes festgelegt ist ein Gewerbe ein Einzelunternehmen
+&gt; Unternehmer ist mit Privatvermögen haftbar</t>
+  </si>
+  <si>
+    <t>Wer muss keine Gewerbesteuer bezahlen?</t>
+  </si>
+  <si>
+    <t>&gt; Freiberufler</t>
+  </si>
+  <si>
+    <t>Kennzeichen Freiberufler</t>
+  </si>
+  <si>
+    <t>&gt; Keine Gewerbesteuer und IHK-Mitgliedschaft notwendig
+&gt; Muss “Katalogberuf” ausführen (Ärzte, Ingenieure, Notare, etc)
+&gt; Wird durch Standesorganisation beaufsichtigt (z.B. Ärztekammer)</t>
+  </si>
+  <si>
+    <t>Wer entscheidet in einer GmbH?</t>
+  </si>
+  <si>
+    <t>&gt; Die Gesellschafter entscheiden mit Mehrheitsbeschluss</t>
+  </si>
+  <si>
+    <t>Frage</t>
+  </si>
+  <si>
+    <t>Antwort</t>
+  </si>
+  <si>
+    <t>· Summe der mit Kaufkraft ausgestatteten Bedürfnisse.
+· Bedürfnisse: Mangelgefühl oder unerfüllter Wunsch
+· Beispiel: Studentin hat Hunger (Bedürfnis) und genug Geld (Kaufkrauft) um sich eine Mahlzeit in der Kantine zu kaufen</t>
+  </si>
+  <si>
+    <t>· Bund, Länder, Kommunen. Sie leiten die Bedürfnisse aus denen
+der Haushalte ab → Kollekivbedürfnisse
+· Der öffentliche Haushalt dient primär dazu, den Bürgern
+öffentliche Leistungen (z.B. Sicherheit, Bildung) zur Verfügung zu
+stellen.</t>
+  </si>
+  <si>
+    <t>· Betrieb als planvoll organisierte Wirtschaftseinheit
+· Aufgaben des Betrieb: Ressourcen (Menschen, Materialien, Maschinen, etc.) kombinieren, Güter/Dienstleitungen herstellen, Fremdbadarf decken, Absatz schaffen</t>
+  </si>
+  <si>
+    <t>· BWL: Prozessen innerhalb eines einzelnen Unternehmens, VWL: gesamtwirtschaftliche Zusammenhänge (Erkentnissobjekt)
+· Stichwort: Frosch- (BWL) vs. Vogelperspektive (VWL)
+· BWL unterteilt sich in: Allgemeine BWL (Standort, Rechtsform, Verbindungen) und Spezielle BWL (einzelne Institutionen der BWL)
+· Beide Formen beschreiben die Funktionale BWL (Grundlegende Funktionen der BWL: Marketing, etc.)
+· Erfahrungsobjekt: BWL: Betrieb, VWL: Aggregierte Bereiche (z.B. alle Betriebe)</t>
+  </si>
+  <si>
+    <t>Warum ist BWL entstanden?</t>
+  </si>
+  <si>
+    <t>Was macht die allgemeine BWL?</t>
+  </si>
+  <si>
+    <t>Was ist ein Homo Ökonomicus?</t>
+  </si>
+  <si>
+    <t>Was bestimmt ökonomistisches Handeln?</t>
+  </si>
+  <si>
+    <t>Welche betriebs-wirtschaftlichen Basiskonzepte lassen sich unterscheiden?</t>
+  </si>
+  <si>
+    <t>Nenne 5 Betriebstypologien und jeweils einer Ausprägung.</t>
+  </si>
+  <si>
+    <t>Was macht der verhaltens-/sozial-wirtschaftliche Ansatz?</t>
+  </si>
+  <si>
+    <t>Was bewirken soziale Faktoren im Arbeitsumfeld?</t>
+  </si>
+  <si>
+    <t>Wodurch erkennt man Dienstleistungen?</t>
+  </si>
+  <si>
+    <t>Wovon hängt es ab, ob der Einkauf eines Produkts ein Konsum- oder ein Produktionsgut darstellt?</t>
+  </si>
+  <si>
+    <t>Entstanden aus dem Bedarf, wirtschaftliche Aktivitäten von Unternehmen zu analysieren und zu optimieren.
+· Industrialisierung: Zunahme und Wachstum von Unternehmen und Veränderung der Betriebsstrukturen.
+-&gt; Bedarf nach wissenschaftlicher Analyse und Optimierung von Unternehmensprozessen
+· Globalisierung: Globalisierung und Wettbewerb haben dazu beigetragen, dass Unternehmen mehr auf Effizienz und Wettbewerbsfähigkeit setzen
+-&gt; BWL liefert dafür wichtige Analyse- und Planungsinstrumente.</t>
+  </si>
+  <si>
+    <t>· Grundlegende Konzepte und Theorien für das Verständnis von Unternehmen
+· Befasst sich mit Struktur, Management, Entscheidungsprozessen eines Unternehmens
+· Systematische und wissenschaftliche Analyse von Unternehmen und ihrem Verhalten
+· Verwendet Analysemethoden und -modelle um Entscheidungen und Aktivitäten von Unternehmen zu beschreiben
+· Bietet somit einen Leitfaden für konstitutive Entscheidungen wie Standort, Rechtsform oder Verbindungen
+· Gibt einen Überblick über die Funktionale BWL (z.B. Marketing, Personalmanagement, Rechnungswesen, etc.)</t>
+  </si>
+  <si>
+    <t>Ist ein hypothetischer Typus des menschlichen Verhaltens in der Wirtschaftslehre der nur ökonomische Ziele kennt
+Eigenschaften:
+· rationales Verhalten
+· Nutzenmaximierung (Streben nach größtmöglichem Nutzen)
+· vollständige Markttransparenz (vollständige Kenntnis seiner wirtschaftlichen Entscheidungsmöglichkeiten, deren Folgen sowie die vollkommene Information über alle Märkte und Eigenschaften sämtlicher Güter)
+-&gt; Dient dazu, elementare wirtschaftliche Zusammenhänge in der Theorie durchsichtig und ohne praktische Unzulänglichkeiten beschreiben zu können.</t>
+  </si>
+  <si>
+    <t>Ökonomistisches Handeln: Entscheidungen und Aktivitäten, die sich auf die Beschaffung von knappen Ressourcen beziehen.
+Gewinn- / Nutzenmaximierung stehen im Vordergrund
+Wird bestimmt durch:
+· Verfügbarkeit von Ressourcen: Handeln wird durch die Menge der verfügbaren Ressourcen (z.B. Zeit oder Geld) begrenzt.
+· Nutzenmaximierung: Es wird versucht, den größtmöglichen Nutzen aus den Entscheidungen zu ziehen.
+· Rationalität: Entscheidungen werden auf der Grundlage logischer Überlegungen und nützlicher Informationen getroffen.
+· Präferenzen: individuelle Präferenzen und Vorlieben beeinflussen das Handeln.
+· Marktmechanismen: Beeinflussung durch Regeln, etc. des Marktes (z.B. Preise, Wettbewerb oder Eigentumsrechte).</t>
+  </si>
+  <si>
+    <t>Kriterien zur Abgrenzung: Ökonomisches Basiskonzept | Sozialwissenschaftliches Basiskonzept
+Menschenbild: Economic Man | Social, Complex und Virtual Man
+BWL als: Autonome Wissenschaft | Spezielle Sozialwissenschaft
+Ethik: Verzicht auf Ethik (Praktisch-normative BWL) | Ethik ist wichtig (Ethisch-normative BWL)
+Vorrangig sind: Eigentümer (Shareholder) | Anspruchsgruppen
+(alle Stakeholder)
+Unternehmensziel: Langfristige Gewinnmaximierung | Maximierung des Gemeinwohls (ökonomisch, sozial und ökologisch)</t>
+  </si>
+  <si>
+    <t>Art der erstellten Leistung:
+Sachleistungsunternehmen
+· Gewinnungsbetrieb
+· Aufbereitungsbetrieb
+· Verarbeitungsbetrieb
+Dienstleistungsunternehmen
+· Handelsunternehmen
+Finanzunternehmen
+· Internet-Dienstleister
+Betriebsgröße
+· Klein- und Mittelunternehmen
+· Großunternehmen
+Rechtsform:
+· Einzelunternehmen
+· Personengesellschaft
+· Kapitalgesellschaft
+Gewinnorientierung
+· Profitorientierte Unternehmen
+· Non-Profit-Organisationen
+Lebensphase
+· Start-up-Unternehmen
+· Wachstumsunternehmen
+· Etablierte Unternehmen</t>
+  </si>
+  <si>
+    <t>· Schwerpunkt auf menschliches Verhalten und soziale Faktoren wie Emotionen, Werte und soziale Normen
+· Mensch handelt nicht nur extrinsisch um Geld zu verdienen, sondern auch intrinsisch im Sinne der Gesellschaft.
+· Bietet eine Alternative zu stark auf rationalem Verhalten und ökonomischen Prinzipien fokussierten Ansätzen</t>
+  </si>
+  <si>
+    <t>· Kommunikation und Kooperation: Offenes und respektvolles Arbeitsumfeld kann zur besseren Zusammenarbeit und Effektivität beitragen.
+· Leistung und Motivation: Positive (von Unterstützung und Anerkennung geprägte) Arbeitsatmosphäre kann zu höherer Motivation und Leistung führen.
+Negative (von Konflikten geprägte) Arbeitsatmosphäre verringert diese.
+· Zufriedenheit und Engagement: Von gegenseitigem Respekt und Wertschätzung geprägtes Arbeitsumfeld, kann zu höherer Zufriedenheit und Engagement beitragen
+-&gt; Leistungs- und Effizienzsteigerung durch soziale Faktoren</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Konsumgut:
+· Kunde ist Privatperson (B2C)
+· Werden vom Endverbraucher verwendet
+· z.B. Möbel, Lebensmittel
+Produktionsgut:
+· Kunde ist Geschäftsperson/Unternehmen (B2B)
+· Werden in Unternehmen bzw. im Produktionsprozess verwendet
+· z.B. Maschinen, Schrauben
+Beide sind materielle Güter (Sachgüter)
+Beide können in Verbrauchs- und Gebrauchsgüter unterteilt werden </t>
+  </si>
+  <si>
+    <t>· Sind begrenzt verfügbar und nicht kostenlos
+· Können nicht angefasst oder gelagert werden
+· Werden gleichzeitig mit der Herstellung verbraucht</t>
+  </si>
+  <si>
+    <t>&gt; Freie Güter
+     o Unbegrenzt und kostenlos verfügbar (Luft, Sonnenlicht)
 &gt; Wirtschaftsgüter
-(Siehe Frage: Was sind materielle und immaterielle Güter?) </t>
-  </si>
-  <si>
-    <t>Auswahlkriterien Standortwahl</t>
+     o Begrenzt verfügbar und nicht kostenlos (Nahrungsmittel, Reisen, Auto)
+&gt; Siehe Frage: Was sind materielle und immaterielle Güter?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&gt; Bis 2 natürliche Personen oder Familienangehörige mindestens 50% Anteile eines Unternehmens
+&gt; Und gehören der Geschäftsführung an </t>
+  </si>
+  <si>
+    <t>Der Realgüterbereich besteht aus der Materialwirtschaft, der Produktion und das Marketing.
+Untergeordnete ist noch die Logistik, die dafür sorgt, dass das Material zur richtigen Zeit am richtigen Ort ist.
+Übergeordnet ist das Innovationsmanagement, welches für die Weiterentwicklung des Produkts verantwortlich ist.</t>
+  </si>
+  <si>
+    <t>Das Marketing ist für die Vermarktung des Produkts zuständig.
+Die Aufgabe sind dabei zum einen der Verkauf des Produkts, aber auch die Werbung und Marktplatzierung des Produkts.</t>
+  </si>
+  <si>
+    <t>Hierarchische Organisationsstruktur
+Funktionale Organisationsstruktur
+Horizontale oder flache Organisationsstruktur
+Abteilungsübergreifende Organisationsstrukturen (marktbasiert, produktbasiert, geografisch)
+Matrix-Organisationsstruktur
+Teambasierte Organisationsstruktur
+Netzwerk-Organisationsstruktur</t>
+  </si>
+  <si>
+    <t>Was ist ein gutes Beispiel für eine Ablauforganisation?</t>
+  </si>
+  <si>
+    <t>Die Ablauforganisation stellt die verschiedenen Prozesse im Unternehmen dar.
+Durch gute Ablauforganisationen sollen Prozesse optimiert werden.</t>
+  </si>
+  <si>
+    <t>Was passiert, wenn ein neuer Ablauf organisiert bzw. entworfen wurde?</t>
+  </si>
+  <si>
+    <t>Der Neue Ablauf muss umgesetzt werden, anschließend muss der Erfolg des neunen Ablaufs gemessen werden.</t>
+  </si>
+  <si>
+    <t>Was kennzeichnet Unterstützungsprozesse?</t>
+  </si>
+  <si>
+    <t>Sie werden vom Kunden kaum bzw. am wenigsten wahrgenommen. Sie sind nicht Teil des eigentlichen Produktionsprozesses.</t>
+  </si>
+  <si>
+    <t>Was ist der Unterschied zwischen internen und externen Stakeholdern.</t>
+  </si>
+  <si>
+    <t>&gt; Externe Stakeholder befinden sich außerhalb eines Unternehmens und haben Interesse an dem Geschehen im Unternehmen Bsp. Kunden, Lieferanten, Staat
+&gt; Interne Stakeholder sind Teil des Unternehmens Bsp. Eigenkapitalgeber, Management, Arbeitnehmer</t>
+  </si>
+  <si>
+    <t>Zusammenhang von Stakeholdern und betriebswirtschaftliche Basiskonzept?</t>
+  </si>
+  <si>
+    <t>Sozialwissenschaftlicher Ansatz versucht es allen Stakeholdern recht zu machen, der ökonomistische Ansatz fokussiert sich vorwiegend auf die Aktionäre</t>
+  </si>
+  <si>
+    <t>Was ist ein Shareholder?</t>
+  </si>
+  <si>
+    <t>Der Shareholder besitzt Anteile des Unternehmens.(Bsp. Aktionäre)</t>
+  </si>
+  <si>
+    <t>In welche Kategorien werden Werkstoffe unterteilt?</t>
+  </si>
+  <si>
+    <t>&gt; Rohstoffe (Hauptbestandteil des Produkt) 
+&gt; Hilfsstoffe (werden verbraucht)
+&gt; Betriebsstoffe (werden verbraucht, gehen aber nicht in Produkt. ein)
+&gt; Fremdbauteile (dazugekauft, sind bereits fertig)</t>
+  </si>
+  <si>
+    <t>Geben Sie Beispiele für alle vier der Werkstoffkategorien!</t>
+  </si>
+  <si>
+    <t>&gt; Rohstoffe : Milch
+&gt; Hilfsstoffe: Gewürze
+&gt; Betriebsstoffe: Energie für Maschinenbetrieb
+&gt; Fremdbauteile: Etiketten.</t>
+  </si>
+  <si>
+    <t>Woraus setzen sich Produktionsfaktoren zusammen?</t>
+  </si>
+  <si>
+    <t>&gt; Elementarfaktoren 
+o Werkstoffe
+o Betriebsstoffe
+o Arbeitsleitung
+&gt; Dispositive Faktoren (übergeordnete Tätigkeiten, wie Planung)</t>
+  </si>
+  <si>
+    <t>Beispiele zu Produktionsfaktoren?</t>
+  </si>
+  <si>
+    <t>Bsp. Gummibären
+&gt; Elementarfaktoren 
+o Werkstoffe: Glukosesirup, Geschmacksstoffe, Strom, Verpackung
+o Betriebsstoffe: Gebäude, Mischmaschinen 
+o Arbeitsleitung : Mittarbeiter 
+&gt; Dispositive Faktoren Planung der Produktion, Kontrolle der Qualität</t>
+  </si>
+  <si>
+    <t>Nennen Sie je eine Funktion aus den Realgüterbereich, dem Finanzbereich und dem Dispobereich.</t>
+  </si>
+  <si>
+    <t>&gt; Realgüterbereich:
+o Produktion
+o Marketing
+o Materialwirtschaft
+&gt; Finanzbereich:
+o Rechnungswesen
+o Finanzierung
+o Investitionen
+&gt; Dispositiver Bereich:
+o Personalmanagement
+o Controlling</t>
+  </si>
+  <si>
+    <t>Wie sind Entscheidungen definiert und wie lassen sie sich in den Managementzirkel einordnen?</t>
+  </si>
+  <si>
+    <t>Entscheidungssituation mit Aktionsraum, Zustandsraum und Ergebnismatrix darstellen?</t>
+  </si>
+  <si>
+    <t>· Bedeutet Gestaltung, Organisation, Durchführung, Messung und Optimierung von Prozessen
+· Konsequente Kundenorientierung
+· Transparenz vom Einzelschritt bis zu einem Gesamtprozess
+· Verständnis und Kenntnis von der eigenen Aktivität abhängigen Prozesse
+· Unterliegt der kontinuierlichen Verbesserung
+· Soll dem Siloeffekt entgegenwirken</t>
+  </si>
+  <si>
+    <t>· Werden von der Führungsebene getroffen
+· Sind für das Unternehmen von Grundlegender Bedeutung
+· Sind nur einmal oder sehr selten zu treffen
+· Bspw. Bei Gründung, Expansion oder Aufgabe eines Unternehmens</t>
+  </si>
+  <si>
+    <t>Planung -&gt; Entscheidung -&gt; Realisierung -&gt; Kontrolle (-&gt; Planung)</t>
+  </si>
+  <si>
+    <t>Eine Entscheidung zu treffen, bedeutet die bewusste Auswahl zwischen mehreren Handlungsmöglichkeiten zur Erreichung von Zielen.</t>
+  </si>
+  <si>
+    <t>Sicherheit: Das Ergebnis einer Aktion kann eindeutig vorhergesagt werden. Das Nutzen eines Entscheidungsmodells ist nicht nötig.
+Unsicherheit: Im Gegensatz zu Sicherheit gibt es mehrere möglichen Ergebnisse. Das Nutzen von Entscheidungsmodellen ist von Vorteil. (Maximin-Regel; Maximax-Regel; Hurwicz-Regel; Savage-Niehans-Regel; Laplace-Regel)
+Risiko: Risiko ähnelt Unsicherheit, besitzt jedoch zusätzlich die Information der Eintrittswahrscheinlichkeit. (Bernoulli-Prinzip; μ-/Bayes-Prinzip; (μ, σ)-Prinzip)</t>
+  </si>
+  <si>
+    <t>Business Unit =&gt; Geschäftsfeld: beschreibt einen Tätigkeitsbereich, welcher sich auf einen bestimmten Markt oder ein Segment konzentriert, das sich gut von anderen Bereichen abgrenzen lässt. In einer Business Unit befinden sich immer mehrere Abteilungen.</t>
+  </si>
+  <si>
+    <t>Durchführen von Entscheidungsmodellen, bspw.:
+Maximax                    Keine
+                           Kontrolle   Kontrolle   Beurteilungsgröße
+--------------------------------------------------------------------
+Kein Parkschein kaufen      0$         -5$          0$   &lt;-Sieger
+Parkschein kaufen          -1$         -1$         -1$
+Savage-                    Keine
+Niehans                    Kontrolle   Nutzenentgang    Kontrolle    Nutzenentgang    Beurteilungsgröße
+-----------------------------------------------------------------------------------------------------------------
+Kein Parkschein kaufen      /$          /$              -5$          -4$              4$ 
+Parkschein kaufen          -1$         -1$              -1$          -1$              1$   &lt;-Sieger</t>
   </si>
   <si>
     <t>&gt; Weiche Faktoren:
@@ -447,87 +729,305 @@
 &gt; Staatlich festgelegte Faktoren
      o Steuern
      o Umweltschutz
-     o Subventionen</t>
-  </si>
-  <si>
-    <t>Kennzeichen Einzelunternehmen</t>
-  </si>
-  <si>
-    <t>&gt; Inhaber-Geführt
-&gt; Unbeschränkte Haftbarkeit bis Privatvermögen
-&gt; Alleinige Geschäftsführung und Vertretung</t>
-  </si>
-  <si>
-    <t>Kennzeichen Personengesellschaft</t>
-  </si>
-  <si>
-    <t>&gt; Durch mehrere Gesellschafter geführt
-&gt; Unbeschränkte Haftbarkeit bis ins Privatvermögen
-&gt; Alle Gesellschafter sind haftbar
-&gt; Geschäftsführung und Vertretung liegt bei Gesellschaftern</t>
-  </si>
-  <si>
-    <t>Kennzeichen Kapitalgesellschaft</t>
-  </si>
-  <si>
-    <t>&gt; Haftung beschränkt auf Gesellschaftsvermögen
-&gt; Geschäftsführung liegt bei Dritten.</t>
-  </si>
-  <si>
-    <t>Unterschied Einzelunternehmen und Personengesellschaften zu Kapitalgesellschaft</t>
-  </si>
-  <si>
-    <t>&gt; Haftung ist bei Kapitalgesellschaften auf Gesellschaftsvermögen beschränkt
-&gt; Kapitalgesellschaften werden nicht von den Gesellschaftern geführt</t>
-  </si>
-  <si>
-    <t>Unterschiede Einzeilunternehmen</t>
-  </si>
-  <si>
-    <t>&gt; Kleingewerbe
-     o Gewerbeanmeldung
-     o Kein Handelsregistereintrag notwendig
-&gt; Handelsgewerbe
-     o Gewerbeanmeldung
-     o Eintrag Handelsregister
-     o Muss doppelte Buchhaltung durchführen
-&gt; Freiberufler
-     o Keine Gewerbeanmeldung
-     o Kein Handelsregistereintrag
-     o Werden durch Standesorganisation beaufsichtigt (z.B. Ärztekammer)</t>
-  </si>
-  <si>
-    <t>Was passiert, wenn man ein Gewerbe ohne Rechtsform betreib im Streitfall?</t>
-  </si>
-  <si>
-    <t>&gt; Wird es bei der Gründung nicht anderes festgelegt ist ein Gewerbe ein Einzelunternehmen
-&gt; Unternehmer ist mit Privatvermögen haftbar</t>
-  </si>
-  <si>
-    <t>Wer muss keine Gewerbesteuer bezahlen?</t>
-  </si>
-  <si>
-    <t>&gt; Freiberufler</t>
-  </si>
-  <si>
-    <t>Kennzeichen Freiberufler</t>
-  </si>
-  <si>
-    <t>&gt; Keine Gewerbesteuer und IHK-Mitgliedschaft notwendig
-&gt; Muss “Katalogberuf” ausführen (Ärzte, Ingenieure, Notare, etc)
-&gt; Wird durch Standesorganisation beaufsichtigt (z.B. Ärztekammer)</t>
-  </si>
-  <si>
-    <t>Wer entscheidet in einer GmbH?</t>
-  </si>
-  <si>
-    <t>&gt; Die Gesellschafter entscheiden mit Mehrheitsbeschluss</t>
-  </si>
-  <si>
-    <t>Frage</t>
-  </si>
-  <si>
-    <t>Antwort</t>
+     o Subventionen
+&gt; Folie 38</t>
+  </si>
+  <si>
+    <t>Unterschiede Einzelunternehmen</t>
+  </si>
+  <si>
+    <t>Was ist eine AG?</t>
+  </si>
+  <si>
+    <t>Wodurch sind Personengesellschaften gekennzeichnet?</t>
+  </si>
+  <si>
+    <t>Was ist das besondere an einer KG?</t>
+  </si>
+  <si>
+    <t>Was passiert wenn eine GmbH an die Börse geht?</t>
+  </si>
+  <si>
+    <t>Was kennzeichnet eine KG?</t>
+  </si>
+  <si>
+    <t>Was ist eine Kooperation?</t>
+  </si>
+  <si>
+    <t>Was ist die Aufgabe des Verbands?</t>
+  </si>
+  <si>
+    <t>Für wen gelten die Beteiligunsquoten?</t>
+  </si>
+  <si>
+    <t>Ziele von Unternehmensverbindungen?</t>
+  </si>
+  <si>
+    <t>Was bedeutet Management im engeren Sinne?</t>
+  </si>
+  <si>
+    <t>Was ist der Unterschied zwischen Management und Leadership?</t>
+  </si>
+  <si>
+    <t>Die Aktiengesellschaft AG ist eine Kapitalgesellschaft.
+Das Leitungsorgan, der Vorstand, leitet die die AG Eigenverantwortlich.
+Diese Berichten an ein Kontrollorgan, den Aufsichtsrat, welcher den Vorstand beruft und überbewacht.
+Der Aufsichtsrat besteht aus den gewählten Arbeitnehmervertreter der Belegschaft und den gewählten Vertretern aus der Hauptversammlung.
+Die Hauptversammlung ist das Beschlussorgan, welches aus Aktionären besteht, wo über Grundlegende Fragen, wie Satzungsänderungen, Gewinnverteilung oder Verschmelzungen geklärt werden. 
+Startkapital von 50.000 ist notwendig.</t>
+  </si>
+  <si>
+    <t>Die Personengesellschaft besteht aus Gesellschaftern, welche gesamtschuldnerisch und unbeschränkt bis ins Privatvermögen haften. Geschäftsführung und Vertretung wird von den Gesellschaftern übernommen, Selbsorganschaft.</t>
+  </si>
+  <si>
+    <t>Die KG ist eine Sonderform der OHG. Sie erlaubt mehrere Komplementäre als Geschäftsführung und Vertretung, welche Vollhafter für die Gesellschaft sind. Diese haben eine Haftung, die gesamtschuldnerisch mit dem Privatvermögen und/oder in Höhe der Kapitalanlage festgelegt wird.</t>
+  </si>
+  <si>
+    <t>Eine Gesellschafteranteil der GmBH kann nicht ohne notarielle Beglaubigung verkauft werden. Um an der Börse Aktien zu verkaufen muss die GmBH zur AG oder eine anderen Mischform werden
+https://www.boehms-dax-strategie.de/boersenschule/aktien/aktiengesellschaft-worin-besteht-der-unterschied-zu-einer-gesellschaft-mit-beschraenkter-haftung.html</t>
+  </si>
+  <si>
+    <t>Eine Kapitalgesellschaft kann mehrere Geschäftsführer, Komplementäre, haben.</t>
+  </si>
+  <si>
+    <t>Kooperation bezeichnet die freiwillige Verbindung von Unternehmen. Die Unternehmen bleiben dabei rechtlich und
+wirtschaftlich selbstständig. Nur im Kooperationsbereich ist die wirtschaftliche Autonomie eingeschränkt.</t>
+  </si>
+  <si>
+    <t>Ein Unternehmensverband ist die freiwillige oder gesetzlich vorgeschriebene Vereinigung von Unternehmen. Der Verband fördert die Interessen der Mitglieder und vertritt sie gegenüber Dritten wie Regierung und Öffentlichkeit</t>
+  </si>
+  <si>
+    <t>Beteiligungsquoten gelten für die Shareholder:</t>
+  </si>
+  <si>
+    <t>Management bezeichnet zum einen eine betriebswirtschaftliche Funktion
+und zum anderen die Personengruppe, die Führungspositionen innehat. Die Aufgabe des Managements ist es, Unternehmen zielgerichtet zu gestalten, zu steuern und weiterzuentwickeln.
+Führung im engeren Sinne betrifft die Personalführung. Sind Planung und Entscheidung vollzogen, geht es im Rahmen der Realisierung um die konkrete Veranlassung zur
+Arbeitsausführung. Im Rahmen der Personalführung wird das handeln von
+Personen und Gruppen durch legitime Beeinflussung auf die Verwirklichung
+der Unternehmensziele ausgerichtet.</t>
+  </si>
+  <si>
+    <t>Kriterien: Management | Leadership
+Fokus: Ziele effizient erfüllen | Visionen und effektive Strategie entwickeln
+Motto: Do the things right | Do the right thing
+Methoden: z.B. Projektmanagement | z.B. Strategieentwicklung
+Stärke: Probleme lösen | Menschen inspirieren</t>
+  </si>
+  <si>
+    <t>&gt; Wirtschaftlichkeit steigern
+&gt; Verhandlungsmacht steigern
+&gt; Risiken reduzieren</t>
+  </si>
+  <si>
+    <t>Was macht das Management in der Planung?</t>
+  </si>
+  <si>
+    <t>Was macht das Management in der Entscheidungsphase?</t>
+  </si>
+  <si>
+    <t>Was passiert bei der Realisierung?</t>
+  </si>
+  <si>
+    <t>Was wird bei der Kontrolle gemacht?</t>
+  </si>
+  <si>
+    <t>Was kennzeichnet Ziele?</t>
+  </si>
+  <si>
+    <t>Können Ziele sich gegenseitig beeinflussen?</t>
+  </si>
+  <si>
+    <t>Was ist eine (Unternehmens-) Strategie?</t>
+  </si>
+  <si>
+    <t>Nenne die Phasen eines Lebenszyklus eines Produkts / einer Branche.</t>
+  </si>
+  <si>
+    <t>Wie nennt man neue Produkte auf neuen Märkten?</t>
+  </si>
+  <si>
+    <t>Wo ist der höchste Finanzbedarf notwendig?</t>
+  </si>
+  <si>
+    <t>Welche Strategie verfolgt man am besten bei den Poor Dogs?</t>
+  </si>
+  <si>
+    <t>Unterschied zwischen inneren und äußeren Unternehmensfaktoren?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2. Management-/Führungsprozessschritt
+ • Bewertung der unterschiedlichen Handlungsmöglichkeiten
+ • Auswählen der nützlichsten Handlungsmöglichkeit </t>
+  </si>
+  <si>
+    <t>1. Management-/Führungsprozessschritt
+1) Aktuelle Lage betrachten (Konkurrenten und Technologien)
+2) Situationsanalyse (SWOT) ausführen
+3) Entsprechend der Lage Ziele definieren/anpassen
+4) (Alternative) Wege zum Erreichen der Ziele festlegen</t>
+  </si>
+  <si>
+    <t>3. Management-/Führungsprozessschritt
+ • Überzeugung und Motivierung aller Beteiligten
+ • Aufbauen von Strukturen und Systemen zur Ausführung und Erreichen der Ziele</t>
+  </si>
+  <si>
+    <t>4. Management-/Führungsprozessschritt 
+ • Abweichungsanalyse: Soll-Ist-Vergleich
+ • Berichten der Kenngrößen (Report) an alle involvierten Personen und Bereiche
+(Bei 1 wieder beginnen)</t>
+  </si>
+  <si>
+    <t>• Erreichen eines erwünschten Zustands in der Zukunft. 
+• Ist ein Maßstab zum Messen unternehmerischer Handlungen
+• Ziele müssen operational (definiert und messbar) sein. [Zielinhalt, Zielausmaß, Zeitlicher Bezug, Geltungsbereich, Ressourcen]</t>
+  </si>
+  <si>
+    <t>Ja!
+Wird ein Ziel erreicht, wirkt sich das auch oft positiv auf die anderen Ziele gleicher Kategorie aus.  komplementäre Ziele
+Ziele aus verschiedenen Kategorien konkurrieren oft miteinander.  konkurrierende Ziele
+Antinomische Ziele lassen sich gar nicht vereinbaren
+Lediglich indifferente Ziele beeinflussen sich nicht gegenseitig</t>
+  </si>
+  <si>
+    <t>Langfristige Pläne des strategischen Managements zur Vorgehensweise, um Unternehmensbestand und -erfolg zu sichern und die gestellten Ziele zu erreichen</t>
+  </si>
+  <si>
+    <t>1.	Einführung 
+2.	Wachstum
+3.	Reife
+4.	Sättigung
+5.	Rückgang</t>
+  </si>
+  <si>
+    <t>Questionmarks (Nachwuchsprodukt)
+Unsicher wegen unbestimmter Marktentwicklung</t>
+  </si>
+  <si>
+    <t>Bei jungen Märkten mit neu eingeführten und wachsenden Produkten und Branchen.
+Questionmarks (hoher Invest durch Wachstumsfinanzierung, Markterschließung, F&amp;E) und Stars (finanzieren sich meist schon selbst)</t>
+  </si>
+  <si>
+    <t>Desinvestitionsstrategie
+Zurückziehen vom Markt und Produkte vom Markt nehmen</t>
+  </si>
+  <si>
+    <t>Innere Unternehmensfaktoren sind beeinflussbar
+ • Stärken und Schwächen eines Unternehmens
+Äußere Unternehmensfaktoren sind nicht beeinflussbar
+ • Chancen und Risiken der Umwelt(faktoren)</t>
+  </si>
+  <si>
+    <t>Welche Kreativitätsmethode wird bei Strategien gerne verwendet?</t>
+  </si>
+  <si>
+    <t>Was ist die Marktdurchdringung?</t>
+  </si>
+  <si>
+    <t>Was ist die Marktentwicklung?</t>
+  </si>
+  <si>
+    <t>Was ist Diversifikation?</t>
+  </si>
+  <si>
+    <t>Was macht Porters Wettbewerbsstrategien aus?</t>
+  </si>
+  <si>
+    <t>Was kennzeichnet die Unternehmenskultur?</t>
+  </si>
+  <si>
+    <t>Was bedeutet Corporate Governance?</t>
+  </si>
+  <si>
+    <t>Was bedeutet Corporate Identity?</t>
+  </si>
+  <si>
+    <t>Was sind Wettbewerb Strategien?</t>
+  </si>
+  <si>
+    <t>Skizzieren Sie eine Wertschöpfungskette anhand einer Wurst.</t>
+  </si>
+  <si>
+    <t>Wie unterscheidet sich Effektivität und Effizient?</t>
+  </si>
+  <si>
+    <t>Was ist die Produktentwicklung?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SWOT-Analyse:            
+Porters Five Forces:  
+4-Felder-Matrix:  
+Ansoff-Matrix:  </t>
+  </si>
+  <si>
+    <t>· Wachstumsstrategie von Ansoff
+· Gegenwärtig bestehendes Produkt auf gegenwärtig bestehendem Markt
+· Es geht dabei um das Gewinnen neuer Marktanteile eines bereits bestehenden Marktes mit Produkten aus einem bestehenden Sortiment.
+· Bestehende Kunden zum Kauf vom mehr Produkten motivieren, oder Kunden von der Konkurrenz abwerben
+· Methoden: Preis runtersetzten, Gratisproben anbieten, etc.</t>
+  </si>
+  <si>
+    <t>· Wachstumsstrategie von Ansoff
+· Entwicklung eines neuen Markts mit bestehendem Produkt
+· Bspw. Erschließung neuer Länder und neuer Zielgruppen sein
+· Meist nur geringe Veränderungen am Produkt oder Produktlinien vorgenommen, um es an die neuen Absatzmärkte anzupassen
+· Beispiel: Sportschuhe als Sneakers verkaufen</t>
+  </si>
+  <si>
+    <t>· Wachstumsstrategie von Ansoff
+· Für einen bereits bestehenden Absatzmarkt mit existierenden (Bestands-)Kunden wird ein neues Produkt entwickelt und eingeführt.
+· Bspw. bei einem Austausch bestehender Produkte oder bei einer Sortimentserweiterung
+· Vorteil ist, dass Kunden und Absatzmarkt für das Unternehmen bereits bekannt sind und die Innovation somit voraussichtlich Erfolg hat.</t>
+  </si>
+  <si>
+    <t>· Wachstumsstrategie von Ansoff
+· Auf neuen Märkten völlig neue Produkte anbieten
+· Wird zumeist von Startups und Gründungsunternehmen angewandt
+· Neue Märkte können z.B. auch noch unerschlossenen geographischen Regionen oder neue Marktsegmente sein
+· Größtes Potenzial für Innovation und Wachstum
+· Größten Risiken zum Scheitern</t>
+  </si>
+  <si>
+    <t>Drei Wettbewerbsstrategien nach Porter:
+o	Differenzierungsstrategie: Produktpalette differenziert sich von der Konkurrenz (Bsp. BIO statt normal).
+o	Kostenführerschaft: durch effiziente Produktion Kostenführer werden.
+o	Nischenstrategie: mithilfe eines Produkts eine neue Nische etablieren und diese übernehmen.
+Porter unterscheidet einerseits zwischen den vom Unternehmen angestrebten Vorteilen Der niedrigeren Kosten oder der Differenzierung von anderen Produkten und Unternehmen. Andererseits unterscheidet er auch darin wie fokussiert das Ziel ist, d.h., ob es ein stark fokussiertes, enges, Ziel ist, oder, ob das Ziel weitreichender und umfassender formuliert ist.</t>
+  </si>
+  <si>
+    <t>· Muster aus in der Vergangenheit bewährten Grundprämissen für Bewältigung von Problemen.
+· Muster gilt als bindend.
+· Wird im Unternehmen als rational und emotional korrekter Umgang mit Problemen weitergegeben.
+·  ist schwer beeinflussbar (Eisberg-Modell), trägt aber maßgeblich zum Unternehmenserfolg bei.</t>
+  </si>
+  <si>
+    <t>· Umfasst Grundsätze und Regeln, mit denen die Strukturen und das Verhalten des Topmanagements gesteuert werden sollen
+· Corporate Governance ist die verantwortungsvolle und transparente (wirksame) Unternehmenssteuerung und -überwachung.</t>
+  </si>
+  <si>
+    <t>· bildet die Firmen-Persönlichkeit
+· setzt sich aus:
+o	dem generellen Erscheinungsbild des Unternehmens und der Unternehmensstruktur (Corporate Design),
+o	dem Verhalten des Unternehmens (Corporate Behaviour)
+o	und der Kommunikation innerhalb des Unternehmens, sowie Marktkommunikation, aber auch aus der Kommunikation nach außen, bspw. PR-Arbeit (Corporate Communication)
+· zusammen</t>
+  </si>
+  <si>
+    <t>· Konkurrenzgereichtete Strategien
+· Legen fest, wie sich Unternehmen Wettbewerbsvorteile gegenüber ihren Konkurrenten verschaffen und sichern wollen</t>
+  </si>
+  <si>
+    <t>1. Gewinnungsbetrieb: Schweinezucht (Naturprodukt = Schwein)
+2. Aufbereitungsbetriebe: Schlachthof
+(Zwischenprodukte = große Mengen an Fleisch und Speck)
+3. Verarbeitungsbetriebe: Metzgerei/Fleischerei (Endprodukt = Wurst)
+4. Handel: meist an der Theke beim Metzger oder Handel in Läden.
+5. Endkunde mit Endprodukt Wurst.</t>
+  </si>
+  <si>
+    <t>Effektivität beschreibt die Wirksamkeit einer bestimmten Handlung oder Aktion, um ein gegebenes Ziel zu erreichen (Motto: Das Richtige tun. =&gt; Do the right things!).
+Effizienz beschäftigt sich hingegen mit dem Verhältnis zwischen Ziel und den Ressourcen, die man zu dessen Erreichung einsetzt (ökonomisches Prinzip) (Motto: Etwas richtig tun/machen. =&gt; Do things right!).</t>
   </si>
 </sst>
 </file>
@@ -551,7 +1051,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -559,13 +1059,46 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -882,425 +1415,876 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F34EFBC5-F813-4A89-BD3A-13F91193891E}">
-  <dimension ref="A1:B51"/>
+  <dimension ref="A1:B107"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A99" workbookViewId="0">
+      <selection activeCell="A107" sqref="A107:B107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="54.06640625" customWidth="1"/>
-    <col min="2" max="2" width="79.9296875" customWidth="1"/>
+    <col min="1" max="1" width="55.9296875" customWidth="1"/>
+    <col min="2" max="2" width="96.06640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="85.5" x14ac:dyDescent="0.45">
+      <c r="A3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A6" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A7" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="71.25" x14ac:dyDescent="0.45">
+      <c r="A8" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="71.25" x14ac:dyDescent="0.45">
+      <c r="A9" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A10" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="99.75" x14ac:dyDescent="0.45">
+      <c r="A11" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="85.5" x14ac:dyDescent="0.45">
+      <c r="A12" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="85.5" x14ac:dyDescent="0.45">
+      <c r="A13" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="114" x14ac:dyDescent="0.45">
+      <c r="A14" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="156.75" x14ac:dyDescent="0.45">
+      <c r="A15" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="B1" t="s">
+    </row>
+    <row r="16" spans="1:2" ht="114" x14ac:dyDescent="0.45">
+      <c r="A16" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="1"/>
-    </row>
-    <row r="6" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="57" x14ac:dyDescent="0.45">
-      <c r="A8" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="71.25" x14ac:dyDescent="0.45">
-      <c r="A10" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A11" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A12" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A13" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="85.5" x14ac:dyDescent="0.45">
-      <c r="A14" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A15" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A16" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:2" ht="327.75" x14ac:dyDescent="0.45">
       <c r="A17" s="1" t="s">
-        <v>29</v>
+        <v>91</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A18" s="1" t="s">
-        <v>31</v>
+        <v>92</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="71.25" x14ac:dyDescent="0.45">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="114" x14ac:dyDescent="0.45">
       <c r="A19" s="1" t="s">
-        <v>33</v>
+        <v>93</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="71.25" x14ac:dyDescent="0.45">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="142.5" x14ac:dyDescent="0.45">
       <c r="A20" s="1" t="s">
-        <v>35</v>
+        <v>95</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>36</v>
+        <v>104</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A21" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="114" x14ac:dyDescent="0.45">
+      <c r="A21" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A22" s="1" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" ht="85.5" x14ac:dyDescent="0.45">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="299.25" x14ac:dyDescent="0.45">
       <c r="A23" s="1" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" ht="71.25" x14ac:dyDescent="0.45">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="171" x14ac:dyDescent="0.45">
       <c r="A24" s="1" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" ht="85.5" x14ac:dyDescent="0.45">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A25" s="1" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" ht="57" x14ac:dyDescent="0.45">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A26" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.45">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A27" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" ht="42.75" x14ac:dyDescent="0.45">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="199.5" x14ac:dyDescent="0.45">
       <c r="A28" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" ht="156.75" x14ac:dyDescent="0.45">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="185.25" x14ac:dyDescent="0.45">
       <c r="A29" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" ht="142.5" x14ac:dyDescent="0.45">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="171" x14ac:dyDescent="0.45">
       <c r="A30" s="1" t="s">
         <v>55</v>
       </c>
       <c r="B30" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="99.75" x14ac:dyDescent="0.45">
+      <c r="A31" s="3" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" ht="71.25" x14ac:dyDescent="0.45">
-      <c r="A31" s="1" t="s">
+      <c r="B31" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="B31" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" ht="71.25" x14ac:dyDescent="0.45">
+    </row>
+    <row r="32" spans="1:2" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A32" s="1" t="s">
-        <v>59</v>
+        <v>0</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" ht="313.5" x14ac:dyDescent="0.45">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A33" s="1" t="s">
-        <v>61</v>
+        <v>1</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" ht="171" x14ac:dyDescent="0.45">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A34" s="1" t="s">
-        <v>63</v>
+        <v>2</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" ht="42.75" x14ac:dyDescent="0.45">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="99.75" x14ac:dyDescent="0.45">
       <c r="A35" s="1" t="s">
-        <v>65</v>
+        <v>4</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.45">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A36" s="1" t="s">
-        <v>66</v>
+        <v>5</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A37" s="1" t="s">
-        <v>67</v>
+        <v>7</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" ht="199.5" x14ac:dyDescent="0.45">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="57" x14ac:dyDescent="0.45">
       <c r="A38" s="1" t="s">
-        <v>68</v>
+        <v>9</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" ht="185.25" x14ac:dyDescent="0.45">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A39" s="1" t="s">
-        <v>69</v>
+        <v>11</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" ht="171" x14ac:dyDescent="0.45">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="57" x14ac:dyDescent="0.45">
       <c r="A40" s="1" t="s">
-        <v>70</v>
+        <v>13</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" ht="99.75" x14ac:dyDescent="0.45">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A41" s="1" t="s">
-        <v>71</v>
+        <v>15</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" ht="228" x14ac:dyDescent="0.45">
-      <c r="A42" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" ht="42.75" x14ac:dyDescent="0.45">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A42" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A43" s="1" t="s">
-        <v>81</v>
+        <v>111</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" ht="57" x14ac:dyDescent="0.45">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A44" s="1" t="s">
-        <v>83</v>
+        <v>113</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>84</v>
+        <v>114</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A45" s="1" t="s">
-        <v>85</v>
+        <v>115</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A46" s="1" t="s">
-        <v>87</v>
+        <v>117</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" ht="156.75" x14ac:dyDescent="0.45">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A47" s="1" t="s">
-        <v>89</v>
+        <v>119</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A48" s="1" t="s">
-        <v>91</v>
+        <v>121</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.45">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" ht="57" x14ac:dyDescent="0.45">
       <c r="A49" s="1" t="s">
-        <v>93</v>
+        <v>123</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" ht="42.75" x14ac:dyDescent="0.45">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" ht="57" x14ac:dyDescent="0.45">
       <c r="A50" s="1" t="s">
-        <v>95</v>
+        <v>125</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.45">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A51" s="1" t="s">
-        <v>97</v>
+        <v>127</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>98</v>
+        <v>128</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" ht="85.5" x14ac:dyDescent="0.45">
+      <c r="A52" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" ht="156.75" x14ac:dyDescent="0.45">
+      <c r="A53" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" ht="85.5" x14ac:dyDescent="0.45">
+      <c r="A54" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" ht="71.25" x14ac:dyDescent="0.45">
+      <c r="A55" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" ht="85.5" x14ac:dyDescent="0.45">
+      <c r="A56" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" ht="57" x14ac:dyDescent="0.45">
+      <c r="A57" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A58" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A59" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" ht="171" x14ac:dyDescent="0.45">
+      <c r="A60" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" ht="99.75" x14ac:dyDescent="0.45">
+      <c r="A61" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A62" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" ht="242.25" x14ac:dyDescent="0.45">
+      <c r="A63" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="B63" s="6" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A64" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" ht="57" x14ac:dyDescent="0.45">
+      <c r="A65" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A66" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A67" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" ht="156.75" x14ac:dyDescent="0.45">
+      <c r="A68" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A69" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A70" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A71" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A72" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B72" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" ht="114" x14ac:dyDescent="0.45">
+      <c r="A73" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A74" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A75" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" ht="57" x14ac:dyDescent="0.45">
+      <c r="A76" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A77" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A78" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A79" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A80" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A81" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" ht="128.25" x14ac:dyDescent="0.45">
+      <c r="A82" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" ht="71.25" x14ac:dyDescent="0.45">
+      <c r="A83" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="B83" s="3" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" ht="71.25" x14ac:dyDescent="0.45">
+      <c r="A84" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A85" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A86" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" ht="57" x14ac:dyDescent="0.45">
+      <c r="A87" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" ht="57" x14ac:dyDescent="0.45">
+      <c r="A88" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" ht="85.5" x14ac:dyDescent="0.45">
+      <c r="A89" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A90" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" ht="71.25" x14ac:dyDescent="0.45">
+      <c r="A91" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A92" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A93" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A94" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" ht="57" x14ac:dyDescent="0.45">
+      <c r="A95" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="B95" s="3" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" ht="57" x14ac:dyDescent="0.45">
+      <c r="A96" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" ht="85.5" x14ac:dyDescent="0.45">
+      <c r="A97" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" ht="85.5" x14ac:dyDescent="0.45">
+      <c r="A98" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" ht="85.5" x14ac:dyDescent="0.45">
+      <c r="A99" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" ht="85.5" x14ac:dyDescent="0.45">
+      <c r="A100" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" ht="114" x14ac:dyDescent="0.45">
+      <c r="A101" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" ht="57" x14ac:dyDescent="0.45">
+      <c r="A102" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" ht="57" x14ac:dyDescent="0.45">
+      <c r="A103" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" ht="99.75" x14ac:dyDescent="0.45">
+      <c r="A104" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A105" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" ht="85.5" x14ac:dyDescent="0.45">
+      <c r="A106" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" ht="71.25" x14ac:dyDescent="0.45">
+      <c r="A107" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="B107" s="3" t="s">
+        <v>213</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>